--- a/data/3.xlsx
+++ b/data/3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\06-03-2025 HDSM-man\06-03-2025 v1\raspored\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\09-03-2025\git finalno\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF6DC2D-AB84-4F73-88FE-7455BEF53B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12932B8E-DFCA-40B9-A6BF-11A566A98EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
   <si>
     <t>VRSTA</t>
   </si>
@@ -66,15 +66,9 @@
     <t xml:space="preserve">Voditelj </t>
   </si>
   <si>
-    <t>Zvonimir Banoža, Matija Radobuljac, Sanja Pavić Jelečki, Suzana Palatinuš, Ivana Kralj, Saša Balija, Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc, Suzana Palatinuš, Barbara Samvik, Kristijan Štefanes, Nikola Čopor, Ivica Bračko, Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
-  </si>
-  <si>
     <t xml:space="preserve">RADNO </t>
   </si>
   <si>
-    <t>//</t>
-  </si>
-  <si>
     <t>Ingrid Bošan- Kilibarda i Davorka Furdek</t>
   </si>
   <si>
@@ -105,13 +99,253 @@
     <t>Proglašenje naboljeg postera</t>
   </si>
   <si>
-    <t>13:55 - 14:00</t>
-  </si>
-  <si>
     <t>ZATVARANJE KONGRESA</t>
   </si>
   <si>
     <t>14:00 –––––</t>
+  </si>
+  <si>
+    <t>Netehničke vještine kao ključ uspjeha u zbrinjavanju hitnih stanja</t>
+  </si>
+  <si>
+    <t>Paolo Fatorić, Benjamin Osmančević</t>
+  </si>
+  <si>
+    <t>Evolucija kvalitete u hitnoj medicini: izazovi i perspektive</t>
+  </si>
+  <si>
+    <t>Alma Lozančić, Jelena Kovačević, Tomislav Prša</t>
+  </si>
+  <si>
+    <t>Multikulturološki pristup u zbrinjavanju pacijenata u hitnoj službi</t>
+  </si>
+  <si>
+    <t>Martina Mikšaj, Kata Ivanišević</t>
+  </si>
+  <si>
+    <t>Kvaliteta života medicinskih sestara/tehničara na Objedinjenom hitnom bolničkom prijemu</t>
+  </si>
+  <si>
+    <t>Klaudija Lenić, Martina MIkšaj, Kata Ivanišević</t>
+  </si>
+  <si>
+    <t>Prevencija sindroma izgaranja u OHBP-u</t>
+  </si>
+  <si>
+    <t>Ivana Cerovac, Doris Horvat</t>
+  </si>
+  <si>
+    <t>Strategije za očuvanje dobrobiti djelatnika izvanbolničke hitne medicinske službe</t>
+  </si>
+  <si>
+    <t>Benjamin Osmančević, Mirko Prosen</t>
+  </si>
+  <si>
+    <t>Iza sirena: istražujući zadovoljstvo radnika u hitnoj medicinskoj službi Zagreb</t>
+  </si>
+  <si>
+    <t>Marino Čanađija, Nora Knez</t>
+  </si>
+  <si>
+    <t>Aktivnosti medicinske sestre kod održavanja potencijalnog donora</t>
+  </si>
+  <si>
+    <t>Ivona Dželalija Bura</t>
+  </si>
+  <si>
+    <t>Prijevremeni porod blizanaca u hitnoj medicinskoj službi-prikaz slučaja</t>
+  </si>
+  <si>
+    <t>Andrej Lilek, Martin Zubanović</t>
+  </si>
+  <si>
+    <t>Najčešće nesreće u dječjoj dobi</t>
+  </si>
+  <si>
+    <t>Ivana Kralj</t>
+  </si>
+  <si>
+    <t>Sestrinska skrb za bolesnika s plućnom embolijom u hitnom prijemu</t>
+  </si>
+  <si>
+    <t>Marko Štampar</t>
+  </si>
+  <si>
+    <t>Sepsa i rana primjena antibiotske terapije u Objedinjenom hitnom bolničkom
+prijemu</t>
+  </si>
+  <si>
+    <t>Marko Radeljak</t>
+  </si>
+  <si>
+    <t>Intoksikacija Gama- Hidroksiburatom (GHB)</t>
+  </si>
+  <si>
+    <t>Josip Stević, Saša Balija</t>
+  </si>
+  <si>
+    <t>Zbrinjavanje moždanog udara u hitnoj medicini</t>
+  </si>
+  <si>
+    <t>Lucija Krivačić, Emir Tabaković</t>
+  </si>
+  <si>
+    <t>Prijelomi ključne kosti u pacijenata OHBP-a OB Varaždin</t>
+  </si>
+  <si>
+    <t>Janja Vidić</t>
+  </si>
+  <si>
+    <t>Zbrinjavanje ozljeda potkoljenice u izvanbolničkoj hitnoj medicinskoj službi:
+rad s istraživanjem</t>
+  </si>
+  <si>
+    <t>Danijel Tomašević</t>
+  </si>
+  <si>
+    <t>09:40 - 09:50</t>
+  </si>
+  <si>
+    <t>09:50 - 10:00</t>
+  </si>
+  <si>
+    <t>10:00 - 10:10</t>
+  </si>
+  <si>
+    <t>10:10 - 10:20</t>
+  </si>
+  <si>
+    <t>10:20 - 10:30</t>
+  </si>
+  <si>
+    <t>10:30 - 10:40</t>
+  </si>
+  <si>
+    <t>10:40 - 10:50</t>
+  </si>
+  <si>
+    <t>10:50 - 11:00</t>
+  </si>
+  <si>
+    <t>11:00 - 11:10</t>
+  </si>
+  <si>
+    <t>11:40 - 11:50</t>
+  </si>
+  <si>
+    <t>11:50 - 12:00</t>
+  </si>
+  <si>
+    <t>12:00 - 12:10</t>
+  </si>
+  <si>
+    <t>12:50 - 13:00</t>
+  </si>
+  <si>
+    <t>Safety challenges and medical aspects of Motor Sport on the example of the Grobnik Automotodrome</t>
+  </si>
+  <si>
+    <t>Radno predsjedništvo: Ingrid Bošan- Kilibarda i Davorka Furdek</t>
+  </si>
+  <si>
+    <t>11:10 - 11:30</t>
+  </si>
+  <si>
+    <t>09:30 - 11:10</t>
+  </si>
+  <si>
+    <t>11:30 - 11:40</t>
+  </si>
+  <si>
+    <t>12:10-  12:20</t>
+  </si>
+  <si>
+    <t>12:20 - 12:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:30 - 12:40 </t>
+  </si>
+  <si>
+    <t>12:40 - 12:50</t>
+  </si>
+  <si>
+    <t>13:50 - 13:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:05 - 13:50 </t>
+  </si>
+  <si>
+    <t>Radno predsjedništvo: Martina Mikšaj i Marino Čanađija</t>
+  </si>
+  <si>
+    <t>11:30 - 14:00</t>
+  </si>
+  <si>
+    <t>Premature birth of twins in the EMS - case report</t>
+  </si>
+  <si>
+    <t>The most common accidents in childhood</t>
+  </si>
+  <si>
+    <t>Nursing care for patients with pulmonary embolism in ED</t>
+  </si>
+  <si>
+    <t>Sepsis and early use of antibiotic therapy in ED</t>
+  </si>
+  <si>
+    <t>Gamma - Hydroxyburate (GHB) intoxication</t>
+  </si>
+  <si>
+    <t>Stroke management in Emergency Medicine</t>
+  </si>
+  <si>
+    <t>Collarbone fractures in ED of GH Varaždin</t>
+  </si>
+  <si>
+    <t>Management of lower leg injuries in pre-hospital EMS: research</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Non-technical skills as the key to success in emergency care</t>
+  </si>
+  <si>
+    <t>Evolution of quality in Emergency Medicine: challenges and perspectives</t>
+  </si>
+  <si>
+    <t>A multicultural approach to patient care in the emergency department</t>
+  </si>
+  <si>
+    <t>Quality of life of ED nurses / technicians</t>
+  </si>
+  <si>
+    <t>Prevention of burnout syndrome in ED</t>
+  </si>
+  <si>
+    <t>Strategies for Maintaining the Well-Being of Ambulance Personnel</t>
+  </si>
+  <si>
+    <t>Behind the Sirens: Exploring Job Satisfaction in Zagreb’s Emergency Medical Services</t>
+  </si>
+  <si>
+    <t>The role of nurses in management of a potential organ donor
+Ivona Dželalija Bura</t>
+  </si>
+  <si>
+    <t>Discussion</t>
+  </si>
+  <si>
+    <t>Poster presentation</t>
+  </si>
+  <si>
+    <t>The best poster award</t>
+  </si>
+  <si>
+    <t>CLOSING OF THE CONGRESS</t>
+  </si>
+  <si>
+    <t>Zvonimir Banoža, Matija Radobuljac, Sanja Pavić Jelečki, Suzana Palatinuš, Ivana Kralj, Saša Balija, Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc, Suzana Palatinuš, Barbara Samvik, Kristijan Štefanec, Nikola Čopor, Ivica Bračko, Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
   </si>
   <si>
     <r>
@@ -293,7 +527,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-- Barbara Samvik, Kristijan Štefanes, Nikola Čopor, Ivica Bračko
+- Barbara Samvik, Kristijan Štefanec, Nikola Čopor, Ivica Bračko
 P-8:   </t>
     </r>
     <r>
@@ -320,169 +554,32 @@
     </r>
   </si>
   <si>
-    <t>Netehničke vještine kao ključ uspjeha u zbrinjavanju hitnih stanja</t>
-  </si>
-  <si>
-    <t>Paolo Fatorić, Benjamin Osmančević</t>
-  </si>
-  <si>
-    <t>Evolucija kvalitete u hitnoj medicini: izazovi i perspektive</t>
-  </si>
-  <si>
-    <t>Alma Lozančić, Jelena Kovačević, Tomislav Prša</t>
-  </si>
-  <si>
-    <t>Multikulturološki pristup u zbrinjavanju pacijenata u hitnoj službi</t>
-  </si>
-  <si>
-    <t>Martina Mikšaj, Kata Ivanišević</t>
-  </si>
-  <si>
-    <t>Kvaliteta života medicinskih sestara/tehničara na Objedinjenom hitnom bolničkom prijemu</t>
-  </si>
-  <si>
-    <t>Klaudija Lenić, Martina MIkšaj, Kata Ivanišević</t>
-  </si>
-  <si>
-    <t>Prevencija sindroma izgaranja u OHBP-u</t>
-  </si>
-  <si>
-    <t>Ivana Cerovac, Doris Horvat</t>
-  </si>
-  <si>
-    <t>Strategije za očuvanje dobrobiti djelatnika izvanbolničke hitne medicinske službe</t>
-  </si>
-  <si>
-    <t>Benjamin Osmančević, Mirko Prosen</t>
-  </si>
-  <si>
-    <t>Iza sirena: istražujući zadovoljstvo radnika u hitnoj medicinskoj službi Zagreb</t>
-  </si>
-  <si>
-    <t>Marino Čanađija, Nora Knez</t>
-  </si>
-  <si>
-    <t>Aktivnosti medicinske sestre kod održavanja potencijalnog donora</t>
-  </si>
-  <si>
-    <t>Ivona Dželalija Bura</t>
-  </si>
-  <si>
-    <t>Medicinska prijavno-dojavna jedinica: središnja os zvijezde života u hitnoj
-medicini</t>
-  </si>
-  <si>
-    <t>Ivana Jakovljević, Stjepan Petričević, Igor Pelaić, Nada Bogović</t>
-  </si>
-  <si>
-    <t>Prijevremeni porod blizanaca u hitnoj medicinskoj službi-prikaz slučaja</t>
-  </si>
-  <si>
-    <t>Andrej Lilek, Martin Zubanović</t>
-  </si>
-  <si>
-    <t>Najčešće nesreće u dječjoj dobi</t>
-  </si>
-  <si>
-    <t>Ivana Kralj</t>
-  </si>
-  <si>
-    <t>Sestrinska skrb za bolesnika s plućnom embolijom u hitnom prijemu</t>
-  </si>
-  <si>
-    <t>Marko Štampar</t>
-  </si>
-  <si>
-    <t>Sepsa i rana primjena antibiotske terapije u Objedinjenom hitnom bolničkom
-prijemu</t>
-  </si>
-  <si>
-    <t>Marko Radeljak</t>
-  </si>
-  <si>
-    <t>Intoksikacija Gama- Hidroksiburatom (GHB)</t>
-  </si>
-  <si>
-    <t>Josip Stević, Saša Balija</t>
-  </si>
-  <si>
-    <t>Zbrinjavanje moždanog udara u hitnoj medicini</t>
-  </si>
-  <si>
-    <t>Lucija Krivačić, Emir Tabaković</t>
-  </si>
-  <si>
-    <t>Prijelomi ključne kosti u pacijenata OHBP-a OB Varaždin</t>
-  </si>
-  <si>
-    <t>Janja Vidić</t>
-  </si>
-  <si>
-    <t>Zbrinjavanje ozljeda potkoljenice u izvanbolničkoj hitnoj medicinskoj službi:
-rad s istraživanjem</t>
-  </si>
-  <si>
-    <t>Danijel Tomašević</t>
-  </si>
-  <si>
-    <t>09:40 - 09:50</t>
-  </si>
-  <si>
-    <t>09:50 - 10:00</t>
-  </si>
-  <si>
-    <t>10:00 - 10:10</t>
-  </si>
-  <si>
-    <t>10:10 - 10:20</t>
-  </si>
-  <si>
-    <t>10:20 - 10:30</t>
-  </si>
-  <si>
-    <t>10:30 - 10:40</t>
-  </si>
-  <si>
-    <t>10:40 - 10:50</t>
-  </si>
-  <si>
-    <t>10:50 - 11:00</t>
-  </si>
-  <si>
-    <t>11:00 - 11:10</t>
-  </si>
-  <si>
-    <t>11:10 - 11:20</t>
-  </si>
-  <si>
-    <t>11:20 - 11:40</t>
-  </si>
-  <si>
-    <t>11:40 - 11:50</t>
-  </si>
-  <si>
-    <t>11:50 - 12:00</t>
-  </si>
-  <si>
-    <t>12:00 - 12:10</t>
-  </si>
-  <si>
-    <t>12:10 - 12:20</t>
-  </si>
-  <si>
-    <t>12:20-  12:30</t>
-  </si>
-  <si>
-    <t>12:30 - 12:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12:40 - 12:50 </t>
-  </si>
-  <si>
-    <t>12:50 - 13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13:10 - 13:55 </t>
+    <t>POSTER LIST
+P—1  Anaphylactic shock,
+Zvonimir Banoža, Matija Radobuljac
+P—2  Aortic dissection
+Sanja Pavić Jelečki
+P—3  Education of employees of the Institute of Emergency Medicine
+of Krapina - Zagorje County
+Suzana Palatinuš
+P—4  Inhalation Analgesia in Emergency Medicine: Application of Penthrox
+Anastazija Ramljak, Anita Krnjak
+P—5  Innovative Approaches in Emergency Education
+Ivana Kralj, Saša Balija
+P—6  Multidisciplinary Approach in Managing a Pregnant Woman with
+Placental Abruption – From EMS to Delivery Room and Operating
+Theatre
+Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja,
+Milena Škvorc
+P—7  Resuscitation in out-of-hospital conditions
+Suzana Palatinuš
+P—8  Stavovi građana o oživljavanju osoba van bolnice i DNR
+(Do Not Resuscitate) - “Ne oživljavaj” obrascu
+Barbara Samvik, Kristijan Štefanec, Nikola Čopor, Ivica Bračko
+P—9  The importance of recognizing the symptoms and signs of
+cardiogenic shock in patients in the ED with reference to the case
+of a patient with postinfarction septal rupture
+Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
   </si>
 </sst>
 </file>
@@ -591,7 +688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -608,10 +705,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -930,16 +1023,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="38" style="2"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38" style="2"/>
     <col min="11" max="11" width="119.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -978,32 +1072,36 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="G2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>24</v>
+      <c r="B3" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>6</v>
@@ -1013,14 +1111,17 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>64</v>
+      <c r="B4" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>6</v>
@@ -1030,14 +1131,17 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>65</v>
+      <c r="B5" t="s">
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>6</v>
@@ -1047,14 +1151,17 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>66</v>
+      <c r="B6" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>6</v>
@@ -1064,14 +1171,17 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>67</v>
+      <c r="B7" t="s">
+        <v>61</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>6</v>
@@ -1081,14 +1191,17 @@
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>68</v>
+      <c r="B8" t="s">
+        <v>62</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>6</v>
@@ -1098,14 +1211,17 @@
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>69</v>
+      <c r="B9" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>6</v>
@@ -1115,14 +1231,17 @@
       <c r="A10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>70</v>
+      <c r="B10" t="s">
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>6</v>
@@ -1132,76 +1251,85 @@
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>71</v>
+      <c r="B11" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>72</v>
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>63</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="J12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="J13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="G14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>6</v>
@@ -1211,198 +1339,216 @@
       <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>75</v>
+      <c r="B16" t="s">
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="8" t="s">
+      <c r="J17" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="8" t="s">
+      <c r="C19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="8" t="s">
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>39</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" t="s">
-        <v>43</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="4" t="s">
-        <v>13</v>
+      <c r="D25" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="K25" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="3" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data/3.xlsx
+++ b/data/3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\09-03-2025\git finalno\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\11-03-2025\git finalno\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12932B8E-DFCA-40B9-A6BF-11A566A98EDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0ABCA1-183E-41E7-9603-A376181FA4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="125">
   <si>
     <t>VRSTA</t>
   </si>
@@ -581,12 +581,95 @@
 of a patient with postinfarction septal rupture
 Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
   </si>
+  <si>
+    <t>Sažetak Automotodrom Grobnik, smješten u Hrvatskoj, predstavlja važan centar profesionalnog moto sporta u regiji. Ova trkaća staza, poznata po tehničkoj zahtjevnosti i velikim brzinama, redovito privlači vrhunske vozače na nacionalna i međunarodna natjecanja, ali i na treninge te testiranja vozila. Ipak, moto sport nosi iznimno visok rizik, čime postavlja velike izazove pred medicinske timove i sigurnosne protokole. Ozljede u moto sportu česte su i raznovrsne, a među najčešćima su prijelomi kostiju, posebno ključne kosti, ruku i nogu. Ozljede glave i mozga, poput potresa mozga i kontuzija, i dalje su prisutne unatoč vrhunskoj zaštitnoj opremi. Udari u kralježnicu mogu izazvati trajna oštećenja, uključujući paralizu, dok unutarnje ozljede, poput oštećenja jetre, slezene ili pluća, često predstavljaju ozbiljniju prijetnju od vanjskih povreda. Dodatno, pri padovima na velikim brzinama dolazi do abrazija i opeklina uzrokovanih trenjem s asfaltom, čak i kod upotrebe zaštitne opreme. Napredak u tehnologiji značajno je smanjio rizike za vozače. Zaštitna oprema danas uključuje odijela s ugrađenim zračnim jastucima koji se aktiviraju prilikom pada, kao i visokokvalitetne kacige koje pružaju maksimalnu zaštitu glave. Modernizacija staza, uključujući šire izletne zone i sigurnosne barijere, dodatno doprinosi smanjenju težine nesreća. Na Grobniku, medicinski timovi igraju ključnu ulogu u osiguravanju brze i učinkovite intervencije, čime se minimiziraju posljedice ozljeda.
+Ključne riječi Automotodrom Grobnik, moto sport, ozljede, sigurnost, medicinski tim</t>
+  </si>
+  <si>
+    <t>Sažetak Prijevremeni porod u hitnoj medicinskoj službi predstavlja izazov zdravstvenim radnicima zbog većeg rizika od komplikacija kako za rodilju, tako i za novorođenčad. U slučaju blizanaca, postoji veći rizik od prijevremenog poroda zbog brojnih faktora kao što su povećani intrauterini tlak, razvoj fetoplacentarne insuficijencije te preuranjena ruptura plodovih ovoja. Prilikom ovakvih intervencija krucijalna je pravilna timska suradnja uz primjenu adekvatnih medicinskih postupaka s ciljem redukcije rizika neželjenih događaja, a poboljšanjem konačnih ishoda. Cilj hitnog medicinskog tima je zbrinuti i rodilju i nedonoščad s naglaskom na održavanju tjelesne temperature s ciljem prevencije hipotermije uz ostale medicinske postupke u smislu kardiorespiratorne potpore. Navedenu temu iz naslova sažetka obradit ćemo putem prikaza slučaja. Medicinsko prijavno-dojavna jedinica u noćnim satima zaprima poziv od strane supruga za 27-godišnju trudnicu u 32.tjednu jednojajčane blizanačke (dikorionski/diamnionski) trudnoće kod koje je porod u tijeku. Inače, riječ je o pluripari, a aktualna trudnoća je prethodno uredno kontrolirana, bez patologije iste. Naime, pacijentica ranije tijekom dana nije primijetila niti kontrakcije niti pucanje plodovih ovoja kao niti istjecanje amnionske tekućine. Tijekom vršenja nužde, spontano je porodila prvo novorođenče. Po dolasku na mjesto intervencije, 10ak minuta od upućivanja poziva, u toaletu obiteljske kuće, Tim 1 Hitne medicinske službe (liječnik, medicinski tehničar i vozač) zatekao je rodilju i novorođenče na podu u porođajnim tekućinama povezano pupkovinom. Inicijalnim pregledom, kod novorođenčeta su prisutne spontane respiracije uz značajniji napor disanja te je isto hipotermno. Novorođenče je osušeno, taktilno stimulirano, izvršena toaleta dišnih puteva, sterilno je prerezana i zbrinuta pupkovina te su primijenjene aktivne mjere utopljavanja, APGAR 6/7. Nakon zbrinjavanja prvog novorođenčeta rodilja dobiva ritmičke kontrakcije, kreće porod drugog djeteta uz zadak kao vodeću čest te u trećem trudu dolazi do izgona djeteta. Ponovno primijenjene jednake mjere kao i kod prvog djeteta u vidu taktilne stimulacije, toalete dišnih puteva, zbrinjavanja pupkovine te mjera utopljavanja, APGAR 8/8. Pregledom rodilje prati se srednje obilno vaginalno krvarenje te je apliciran venski uterotonik – ergometrin uz nadoknadu tekućina kristaloidnom otopinom. Pristupi se transportu u bolničku ustanovu. U transportu dolazi do spontanog poroda dviju placenti koje su pregledom intaktne. Rodilja je cijelo vrijeme transporta hemodinamski stabilna, urednih vitalnih parametara, bez značajnijeg vaginalnog krvarenja. Oba novorođenčeta nepromijenjenog stanja do predaje osoblju pedijatrijskog odjela. Nakon inicijalnog zbrinjavanja u OB „dr. Tomislav Bardek“, oba novorođenčeta su kroz sat vremena transportirana za tercijarnu bolničku ustanovu, KBC Zagreb u pratnji dežurnog neonatologa.
+Ključne riječi prijevremeni porod, blizanački porod, nedonošćad, hitna medicinska služba</t>
+  </si>
+  <si>
+    <t>Sažetak Nesreća u dječjoj dobi odnosi se na neplanirani događaj koji rezultira ozljedom ili nekom drugom fizičkom ili psihičkom posljedicom. Može uključivati padove, prometne nesreće, utapanja, trovanja, opekline, gušanja i druge incidente. Padovi su najčešći uzrok ozljeda kod djece, posebno kod dojenčadi koja uče hodati, a čine značajan dio nesreća koje se događaju kod kuće. Najčešći padovi su s kreveta, stepenica, prozora i balkona. Prometne nesreće su vodeći uzrok smrti djece u dobi od 10 do 19 godina. Studije pokazuju da su djeca često žrtve nesreća kao pješaci, biciklisti ili putnici u vozilima. Prevencija uključuje korištenje sigurnosnih pojaseva, dječjih sjedala i edukaciju o sigurnom ponašanju u prometu. Utapanja su čest uzrok smrti kod djece, posebno u dobi do 4 godine. Trovanja su česta kod male djece koja istražuju svijet oko sebe. Trovanja su najčešće lijekovima, kemikalijama i otrovnim biljkama, pogotovo lijekovima koji izgledaju poput bombona (sedativi, hipnotici). Otrovi djeluju lokalno (uzrokuju razaranje tkiva, gušenje, otekline) ili sistemski gdje ulaskom u krvotok uzrokuju zatajenje organa, neuroze, psihoze, nesvjestice, halucinacije, proljev, povraćanje i dr. Opekline su česte kod djece zbog njihove znatiželje i nepažnje. Najčešći uzroci opeklina su vruće tekućine, vatra i električni uređaji. Strana tijela u dišnim putevima su čest uzrok hitnih situacija kod djece. Najčešće se radi o malim predmetima koje djeca slučajno udahnu. Učinkovita prevencija ozljeda u djetinjstvu zahtijeva sveobuhvatan pristup koji uključuje različite preventivne mjere, kontinuirani nadzor ozljeda te javnu edukaciju o važnosti svijesti i prevencije, posebice edukaciju roditelja.
+Ključne riječi djeca, padovi, trovanja, gušenje, prometne nesreće</t>
+  </si>
+  <si>
+    <t>Sažetak Ovaj rad ima za cilj detaljno istražiti ulogu medicinske sestre/tehničara u zbrinjavanju pacijenata s plućnom embolijom, s posebnim naglaskom na hitne intervencije i primjenu fibrinolitičke terapije, kao i na novije metode uklanjanja ugrušaka, uključujući usisavanje iz opstruiranih plućnih krvnih žila. Rad se temelji na metodologiji pregleda aktualne literature, kliničkih smjernica, i studija slučaja, kako bi se pružio sveobuhvatan uvid u trenutačne prakse i izazove u zbrinjavanju ovih pacijenata. Posebna pažnja posvećena je edukaciji medicinskog osoblja i kontinuiranoj skrbi za pacijente, uključujući prepoznavanje ranih simptoma plućne embolije, kao što su iznenadna dispneja i bol u prsima, te pružanje adekvatne emocionalne podrške pacijentima i njihovim obiteljima. Rad također analizira suradnju unutar multidisciplinarnog tima, koja uključuje liječnike, medicinske sestre/tehničare, fizioterapeute i socijalne radnike, s ciljem osiguranja optimalne skrbi. Nadalje, rad naglašava značaj pravovremenih i adekvatnih intervencija u svrhu smanjenja rizika od komplikacija, poput recidiva embolije, te poboljšanja dugoročnih ishoda liječenja. Diskutira se o važnosti kontinuirane edukacije i stručnog usavršavanja medicinskih sestara/tehničara, što doprinosi unaprjeđenju kvalitete zdravstvene skrbi i povećanju šansi za preživljavanje i oporavak pacijenata s plućnom embolijom. Također se ističe potreba za daljnjim istraživanjima i razvojem novih protokola za poboljšanje kliničke prakse u zbrinjavanju ove kompleksne i potencijalno smrtonosne bolesti.
+Ključne riječi medicinska sestra/tehničar, plućna embolija, fibrinolitička terapija, edukacija pacijenata, hitne intervencije, multidisciplinarni tim.</t>
+  </si>
+  <si>
+    <t>Sažetak Sepsa i septični šok spadaju u životno-ugrožavajuća stanja koja su povezana s visokom stopom komplikacija, dugotrajnim liječenjem i visokom smrtnošću (20%) te predstavljaju veliki javno-zdravstveni problem. Bitno je naglasiti razliku između pojmova bakterijemije i sepse. Bakterijemija predstavlja prisutnost bakterija u krvi dok sepsa predstavlja sistemski upalni odgovor organizma na infekciju. Patofiziološku podlogu sepse čini poremećaj regulacije upalnog odgovora domaćina na infekciju, dok je septični šok specifično stanje organizma koje je karakterizirano disfunkcijom cirkulacije, staničnih i metaboličkih procesa uz razvoj više organskog zatajivanja. Javnozdravstvene multicentrične studije 2017. godine pokazale su povišenje incidencije sepse za 10 % u periodu od 2009. do 2014. godine, što autori objašnjavaju višom životnom dobi bolesnika, primjenom dugotrajne imunosupresivne terapije, razvojem rezistentnih bakterija, ali i većom stopom ranog prepoznavanja sepse i češćem postavljanju dijagnoze. Dijagnosticiranje i početno liječenje moraju započeti odmah po dolasku bolesnika u objedinjeni hitni bolnički prijam (OHBP), a postupci uključuju primarnu opskrbu, monitoriranje vitalnih funkcija, potporno i ciljano liječenje. Novija klinička praksa usmjerena je ranoj primijeni antibiotske terapije kao jednog od čimbenika poboljšanja ishoda i smanjenja duljine liječenja ove skupine bolesnika (protokol prvog sata SSC-a – Surviving Sepsis Campaign iz 2016. godine). Sukladno navedenim smjernicama empirijska antibiotska terapija trebala bi biti započeta već prilikom prepoznavanja sepse i septičnog šoka kao stanja.
+Ključne riječi sepsa, septični šok, rana antibiotska terapija, bakterijemija</t>
+  </si>
+  <si>
+    <t>Sažetak Gama-hidroksibutirat (GHB) primarno se koristi u kliničkoj praksi za liječenje alkoholizma u kontroli simptoma ustezanja. Propisivanje recepata za GHB podliježe strogim regulatornim ograničenjima zbog velike zlouporabe. Zloupotrebljava se kao rekreacijska droga, poznat je i kao „droga za silovanje“, a ulični nazivi su „G“ i „tekući ecstasy“. U toksičnim dozama može uzrokovati depresiju disanja. Trenutačno ne postoji službeno odobren antidot u slučaju predoziranja. 
+Sve učestalije smrti zbog predoziranja GHB-om, važan su razlog za rano prepoznavanje osoba koje su pod utjecajem GHB-a kako bi se pravovremeno spriječili neželjeni događaji. Povraćanje u kombinaciji s gubitkom svijesti može izazvati smrt gušenjem, smrt može nastati i kao posljedica epileptičkog napada ili trauma za vrijeme napada. Timovi izvanbolničke hitne medicinske službe često su prvi u prilici prepoznati na mjestu intervencije tragove konzumiranja GHB-a. Najčešće se droga (bistra prozirna tekućina blagog specifičnog mirisa) nalazi u  bočicama  manjeg volumena s gumenim čepom i kapaljkom koja služi za izvlačenje tekućine. Zbog nepredvidivog trajanja i intenziteta učinka GHB-a, pacijente je nužno opservirati u bolničkim uvjetima uz monitoriranje vitalnih znakova do potpunog oporavka ili hospitalizirati. Liječenje se zasad temelji na suportivnoj terapiji. 
+Objavljena studija iz 2021. godine (Drug-drug interaction between diclofenac and gamma-hydroxybutyric acid; autora Rodriguez-Cruz, Ren, Morris) navodi diklofenak (Voltaren, Naklofen) te druge nesteroidne protuupalne lijekove kao potencijalne antidote. Zabilježen je pozitivan učinak ovih lijekova na toksičnost GHB-a smanjivši njegovu koncentraciju u mozgu, te poboljšavajući disanje jer je upravo depresija disanja glavni uzrok smrti kod intoksikacije GHB-om. Istraživanje je provedeno na životinjskim modelima. 
+Ključne riječi Gama-hidroksibutirat (GHB), depresija disanja, intoksikacija</t>
+  </si>
+  <si>
+    <t>Sažetak Cerebrovaskularni inzult (CVI) smatramo jednim od vodećih uzroka smrtnosti i invalidnosti u Hrvatskoj. S godinama je postao jedan od javnozdravstvenih problema. CVI je hitno medicinsko stanje odnosno neurološki poremećaj koji nastaje zbog poremećaja cirkulacije u mozgu. Smatramo ga hitnim stanjem koje zahtijeva hitnu intervenciju, medicinsko zbrinjavanje te liječenje. Dijelimo ga u dvije glavne skupine: ishemijski i hemoragijski. Ishemijski moždani udar nastaje zbog prestanka protoka normalne cirkulacije kroz određenu krvnu žilu u mozgu, a najčešći uzrok je krvni ugrušak. Hemoragijski moždani udar nastaje zbog puknuća krvne žile koja uzrokuje krvarenje u okolinu mozga. Ljudi moraju biti svjesni rizičnih čimbenika koji mogu dovesti do takvog stanja, a tim saznanjem se može pomoći u njegovoj prevenciji koju smatramo ključnim faktorom u očuvanju zdravlja našeg organizma. Neki od rizičnih čimbenika su: pušenje, nezdrava prehrana, alkohol, debljina, stres, srčane bolesti, dijabetes, itd. Osim rizičnih čimbenika veliku ulogu u nastanku moždanog udara ima i genetska predispozicija. Zbrinjavanje takvih pacijenata u hitnoj službi zahtijeva timski rad te multidisciplinarni pristup. Zbrinjavanje pacijenta kreće pozivom hitne medicinske službe (HMS) od strane obitelji ili poznanika unesrećene osobe ili slučajnog prolaznika. Dolaskom HMS do unesrećenog na mjesto događaja osoblje HMS započinje protokol za zbrinjavanje moždanog udara. Prijevoz pacijenta u bolničku ustanovu ne obavi uvijek izvanbolnička HMS jer se obitelj ili sam pacijent odluče na samostalan dolazak. Bitno je da osoblje HMS-a tijekom prijevoza pacijenta u obližnju bolnicu obavijesti bolnicu o dolasku pacijenta sa suspektnim moždanim udarom. Pacijenti dovezeni u pratnji djelatnika izvanbolničke HMS u većini slučajeva su u težem kliničkom stanju te predstavljaju veću hitnost za zbrinjavanje i prevenciju ili smanjenje invaliditeta. Nakon dolaska u OHBP, procjene i zbrinjavanja, bitno je što ranije obaviti radiološku dijagnostiku i započeti liječenje, te nakon toga pacijenta rasporediti prema njegovom stanju na odjel neurologije, jedinicu intenzivnog liječenja ili dogovoriti hitni transport u drugu ustanovu radi nastavka liječenja. Vrijeme je ključan faktor u zbrinjavanju moždanog udara jer moždano tkivo nakon nastanka ishemije ili hemoragije rapidno propada uzrokujući niz problema ovisno o dio mozga koji je zahvaćen. Poboljšanje zbrinjavanja moždanog udara u hitnoj službi ima direktan utjecaj na preživljavanje i na invaliditet kod pacijenta. Bolničke ustanove u RH su definirale svoje protokole za zbrinjavanje moždanog udara, ali svakako u nekim segmentima postoji dodatna mogućnost unaprjeđenja istog. ‘’Vrijeme je mozak’’, naziv je jednog od projekata EU koji je za cilj odredio povećanje stope preživljavanja i smanjenja invaliditeta kod osoba s moždanim udarom. U suradnji s ‘’Angels’’ organizacijom provedene su vježbe i edukacije u ustanovama u RH s ciljem da se čim prije potvrdi dijagnoza i počne aktivno liječenje. Upravo taj projekt EU ukazao je na prostor za napredovanje koji ima svaka hitna služba u smislu veće efikasnosti i poboljšanjem ishoda kod moždanog udara. Za najefektivniji način zbrinjavanja potreban je uhodan protokol i dobra suradnja izvanbolničke HMS i OHBP-a. Pored protokola, izrazito je važna educiranost osoblja što je ključno kako bi sve što je potrebno za zbrinjavanje takvog pacijenta bilo odrađeno brzo i efikasno.
+Ključne riječi hitna medicinska služba, CVI, Objedinjeni hitni bolnički prijem</t>
+  </si>
+  <si>
+    <t>Sažetak Prijelomi ključne kosti su vrlo česti te čine 12 – 14% svih prijeloma. Prijelom se najčešće događa kod direktnog pada na rame ili rjeđe kod izravnog udarca. Većina prijeloma vidljiva je na temelju kliničkog pregleda, dok se potvrđuje RTG snimkom. Prijelomi ključne kosti mogu se liječiti konzervativno (imobilizacijom) ili kirurškim putem (operacijom). U OHBP Opće bolnice Varaždin u periodu od 1.1.2019. godine do 31.12.2022. Godine javilo se 3167 pacijenata s boli u ramenu, dok je od tog broja njih 274 bio prijelom ključne kosti. Istraživanje je pokazalo da su prijelomima podložniji muškarci njih 192 odnosno 70%. Pacijenti su se najčešće povrijedili u dobi do 10 godina. Najmlađa osoba imala je 0 godina, dok je najstarija imala 90 godina. Većina prijeloma liječila se konzervativnim putem, dok je manji postotak bio za operativno liječenje. Kod prijeloma ključne kosti vrlo je važna zdravstvena njega pacijenata. Medicinsko osoblje treba se kontinuirano educirati i pratiti najnovije smjernice kod zbrinjavanja prijeloma imobilizacijom, kako bi se pacijentima mogla pružiti kvalitetna i adekvatna skrb tijekom cijelog procesa liječenja prijeloma. Medicinske sestre i tehničari OHBP-a imaju važnu ulogu u zbrinjavanju pacijenata s prijelomom ključne kosti, od prepoznavanja znakova prijeloma pa do postavljanja imobilizacije koja je ključna za uspješno suzbijanje boli i liječenje.
+Ključne riječi prijelom ključne kosti, imobilizacija, edukacija, zdravstvena njega, operacija, RTG snimka, istraživanje</t>
+  </si>
+  <si>
+    <t>Sažetak Pravilnim zbrinjavanjem ozljeda potkoljenice ublažavamo bol, te smanjujemo učestalost nastanka ozbiljnih komplikacija i invaliditeta. Oko 15 % svih ozljeda nastaje upravo na području potkoljenice, a prijelomi kostiju potkoljenice spadaju u najčešće prijelome dugih kosti. U izvanbolničkim uvjetima zbrinjavanje je usmjereno na pravilnu imobilizaciju ozlijeđenog dijela stavljanjem odgovarajuće udlage. Glavni cilj ovog rada je utvrditi učestalost ozljeda potkoljenice s obzirom na ukupan broj intervencija izvanbolničke hitne medicinske službe. Ovo istraživanje je provedeno kao retrospektivna analiza baze podataka iz informatičkog sustava „e-Hitna“ Zavoda za hitnu medicinu Karlovačke županije. U istraživanje su uključeni svi punoljetni pacijenti koji su u razdoblju od 1.1.2022. – 31.12.2022. bili zbrinuti zbog ozljeda potkoljenice, od strane timova HMP-a Zavoda za hitnu medicinu Karlovačke županije. Isključni kriteriji su bili pacijenti mlađi od 18 godina i pacijenti pregledani u ambulanti. Za sve ispitanike analizirani su: dob, spol, vrsta ozljede potkoljenice i mehanizam nastanka ozljede. Istraživanje je obuhvatilo ukupno 166 pacijenta, koji su zajedno imali 173 ozljede potkoljenice. Dobiveni rezultati ovog istraživanja su pokazali da je učestalost ozljeda potkoljenice s obzirom na ukupan broj intervencija izvanbolničke hitne medicinske službe 2 %. Rezultati su također pokazali da su najčešći mehanizam nastanka ozljeda potkoljenice padovi, te da ne postoji značajna razlika u učestalosti ozljeda potkoljenice s obzirom na spol.
+Ključne riječi hitna medicinska služba, potkoljenica, ozljede</t>
+  </si>
+  <si>
+    <t>Sažetak Prilikom zbrinjavanja hitnih medicinskih stanja naglasak se stavlja na vještine poput osiguravanja vaskularnog pristupa, dišnog puta, primjene terapije i ostalih tehničkih vještina. Međutim, netehničke vještine predstavljaju važan faktor u kvaliteti zbrinjavanja hitnih stanja i minimaliziranja pogrešaka u radu. 
+Cilj: Cilj ovog preglednog rada je identifikacija netehničkih vještina kao neophodnih faktora u kvalitetnom zbrinjavanju hitnih stanja. 
+Metodologija Proveden je pregled radova u bazama podataka PubMed i Google Scholar u periodu od 2016. do 2024. godine. Analiza je obuhvatila radove koji se bave netehničkim vještinama u zbrinjavanju hitnih stanja kao i komunikacijom u hitnim situacijama. Kriteriji uključivanja bili su radovi objavljeni u spomenutom razdoblju, cjeloviti radovi te radovi na engleskom i hrvatskom jeziku. 
+Rezultati Analizom preglednih radova relevantnih baza podataka prikazano je da ljudski čimbenici poput viđenja i svjesnosti situacije, donošenja odluka, timskog rada i izvršavanje zadataka uvelike doprinose boljoj kvaliteta zbrinjavanja hitnih pacijenta i smanjenju broja grešaka. Svako od ovih načela zajedno sa svojim sastavnicama uz tehničke vještine i medicinsko znanje tvori čvrstu i visokokvalitetnu okosnicu kvalitetne skrbi oko hitnih pacijenata. 
+Zaključak Svakodnevno smo svjedoci sve većem napretku medicinskog znanja, novih vještina te sve suvremenijom opremom uz ogroman tehnološki napredak. Mogućnosti edukacija iz raznih polja zbrinjavanja hitnih pacijenata povećavaju se. Aspekt ljudskog čimbenika te komunikacijskih vještina doima se zanemaren te se tom bitnom segmentu ne pristupa dovoljno temeljito kao sastavnom dijelu kvalitete zbrinjavanja hitnih pacijenata. Netehničke vještine svakako predstavljaju važan faktor u zbrinjavanju hitnih pacijenata stoga postoji potreba za njihovim poboljšanjem u praksi, s naglaskom na veću edukaciju i osvješćivanjem zdravstvenih djelatnika o istom. 
+Ključne riječi netehničke vještine, hitna stanja, komunikacija</t>
+  </si>
+  <si>
+    <t>Sažetak Kvaliteta u hitnoj medicini ima ključnu ulogu u pružanju pravovremene, efikasne i sigurnije zdravstvene zaštite. Tijekom posljednjih desetljeća razvija se tehnologija, standardiziraju se protokoli i povećava se svijest o važnosti kvalitete što je rezultiralo značajnim promjenama u ovom području. Hitna medicina se i dalje suočava s brojnim izazovima ali se istovremeno i nude mogućnosti za unaprjeđenje kroz inovativne pristupe. Jedan od ključnih izazova je osiguranje standardizirane prakse u okruženju koje je po prirodi dinamično i nepredvidivo. Hitne situacije zahtijevaju brzo donošenje odluka, često su te situacije stresne, a nerijetko se javlja nedostatak informacija. Kompleksnost situacije može dovesti do varijacija u kvaliteti pružene skrbi, osobito u ustanovama s ograničenim resursima. Nedostatak osoblja, neadekvatna obuka i zastarjela oprema dodatno otežavaju ispunjavanje standarda kvalitete. Integracija novih tehnologija poput telemedicine i elektronskih zdravstvenih kartona otvara nove perspektive za unapređenje kvalitete. Tehnologija omogućava bržu dijagnostiku, bolju komunikaciju među timovima i preciznije praćenje pacijenta. Ali, njezino uspješno implementiranje zahtjeva značajna ulaganja, obuku osoblja i prilagodbu postojećih protokola. Razvijanje sustava kontinuiranog praćenja i procjene kvalitete ključni je korak u unapređenju hitne medicine. Kontrola indikatora kvalitete pruža temelje za analizu i optimizaciju postojećeg stanja i prakse. U hitnoj medicini naglasak je na timskom radu, dobroj komunikaciji i međusobnoj suradnji sa drugim službama. U fokusu rada hitne službe je pacijent i njegove individualne potrebe. Osim toga potrebno je raditi na prevenciji i edukaciji zajednice što može smanjiti pritisak na hitne službe i omogućiti bolju raspodjelu resursa. Zaključno možemo reći kako evolucija u hitnoj medicini zahtijeva integrirani pristup koji uključuje tehnološki napredak, edukaciju, suradnju i kontinuirano praćenje. Unatoč izazovima uvijek treba težiti poboljšanju, a krajnji cilj je poboljšanje ishoda i zadovoljstva pacijenata.
+Ključne riječi hitna medicina, kvaliteta, evolucija, perspektive</t>
+  </si>
+  <si>
+    <t>Sažetak Multikulturološki pristup u zbrinjavanju pacijenata u hitnoj službi Multikulturološki pristup u hitnoj medicinskoj službi od iznimne je važnosti za osiguravanje kvalitetne, pravovremene i učinkovite zdravstvene skrbi svim pacijentima, neovisno o njihovoj kulturnoj, etničkoj ili religijskoj pripadnosti. Globalizacija, migracije i međunarodni turizam povećali su raznolikost pacijenata u zdravstvenom sustavu, što je dovelo do potrebe za prilagodbom medicinske skrbi specifičnim kulturnim i jezičnim potrebama. Jedan od najvećih izazova u hitnoj službi jest jezična barijera. Pacijenti koji ne govore službeni jezik zemlje u kojoj se nalaze često imaju poteškoća u komunikaciji s medicinskim osobljem, što može uzrokovati nesporazume, pogrešne dijagnoze i neodgovarajuće liječenje. Kako bi se to spriječilo, važno je osigurati dostupnost prevoditelja, koristiti dvojezične medicinske kartone te implementirati digitalne prevoditeljske alate. Osim jezika, važno je uzeti u obzir i kulturne stavove prema bolesti, boli i medicinskim postupcima. Na primjer, neke kulture imaju visoku toleranciju na bol i mogu umanjivati svoje simptome, dok druge mogu izrazito dramatično izražavati nelagodu. Također, određene religijske skupine mogu imati specifične zahtjeve u vezi s liječenjem, kao što su odbijanje transfuzije krvi ili potreba za medicinskim osobljem istog spola. Hitna medicinska služba također mora uzeti u obzir prehrambene navike i vjerske običaje pacijenata. Poštivanje specifičnih prehrambenih ograničenja, poput halal, košer ili vegetarijanske prehrane, može biti važno pri pružanju bolničke skrbi. Nadalje, važno je osigurati privatnost i omogućiti pacijentima prakticiranje vjerskih rituala kada je to moguće. Edukacija medicinskog osoblja o kulturnim razlikama i njihovom utjecaju na zdravstvenu skrb ključna je za poboljšanje kvalitete hitnih medicinskih usluga. Organizacija seminara, radionica i tečajeva o kulturnoj kompetenciji može pomoći zdravstvenim djelatnicima da razviju bolje razumijevanje i empatiju prema pacijentima iz različitih kulturnih sredina. Uvođenjem multikulturološkog pristupa u hitne medicinske službe poboljšava se komunikacija između pacijenata i medicinskog osoblja, povećava se povjerenje u zdravstveni sustav i smanjuje rizik od medicinskih pogrešaka. Prilagođavanjem zdravstvene skrbi kulturnim potrebama pacijenata, hitna služba postaje učinkovitija i humanija, osiguravajući kvalitetnu zdravstvenu zaštitu za sve, neovisno o njihovoj kulturnoj pripadnosti. 
+Ključne riječi hitna služba, multikulturološki pristup, pacijenti, zdravstvena skrb</t>
+  </si>
+  <si>
+    <t>Abstract 
+Objective The aim of this study was to assess the quality of life of nurses working in emergency departments in Rijeka and Zagreb. Additionally, the influence of demographic and occupational factors on quality of life was examined to gain insights into the specific challenges faced by healthcare staff in emergency care settings. 
+Methodology A cross-sectional study was conducted with 99 nurses recruited using a non- probabilistic convenience sampling method. Data were collected in July and August 2024 through an online survey. The World Health Organization Quality of Life Questionnaire (WHOQOL-BREF) was utilized to measure quality of life across four domains: physical health, psychological health, social relationships, and environment. Participants rated their quality of life on a five-point Likert scale, with scores transformed to a 0–100 scale, where higher scores indicated better quality of life. Statistical analyses included descriptive methods, the Kolmogorov-Smirnov test, the Mann-Whitney U test, and the Kruskal-Wallis test, with significance set at a p-value of less than 0.05. 
+Results The overall quality of life score was 57.0, indicating a moderate level of quality of life among participants. The highest satisfaction was reported in the domain of social relationships, while the lowest satisfaction was noted in the domain of physical health. Male participants had significantly higher quality of life scores than females, particularly in the domains of physical health and environment. Younger participants, especially those under 25 years of age, reported better quality of life compared to older participants over 56 years, with significant differences observed across most domains. Nurses with secondary education reported higher quality of life in the domains of psychological health and social relationships compared to those with higher educational qualifications. Additionally, participants working in the emergency department in Rijeka scored higher in the environment domain compared to their counterparts in Zagreb. 
+Conclusions This study revealed significant differences in quality of life among emergency department staff based on gender, age, education, and location. The findings highlight the importance of targeted interventions to address physical health challenges, promote gender equity, and support work-life balance. Regional variations in quality of life emphasize the necessity for location-specific strategies to improve employee well-being. Addressing these factors is essential not only for enhancing the quality of life of emergency department staff but also for improving the overall quality of patient care in emergency settings.
+Keywords quality of life, WHOQOL-BREF, emergency care, nurses</t>
+  </si>
+  <si>
+    <t>Sažetak Burnout sindrom ili sindrom izgaranja je stanje iscrpljenosti koji se javlja kao posljedica dugotrajnoj izloženosti stresu na radnom mjestu. Osobe koje su izložene visokim razinama stresa, nedostatku podrške, prekomjernom radu i preopterećenosti posla najviše su izložene riziku od razvoja burnout sindroma. S obzirom na opis posla i jedinstvenim izazovima, odjeli OHBP-a visoko su rizično mjesto za razvijanje burnout sindroma. Zahtjevan posao medicinske sestre/medicinskog tehničara u OHBP-u, okarakterizirani dugim satima provedenim s velikim prometom pacijenata, čestim izlaganjem traumatičnim događajima, imaju ulogu u razvijanju burnout sindroma. Svi faktori mogu dovesti do emocionalne iscrpljenosti, glavnog uzročnika sindroma izgaranja. Zbog velike fluktuacije vitalno ugroženih pacijenata u OHBP-u medicinsko osoblje izloženo je stresnom opterećenju, a kardiopulmonalna reanimacija jedna je od najstresnijih situacija. Kada se osoba susretne sa stresnom situacijom, prolazi kroz određene faze reakcija. Početna reakcija se javlja kao alarmni odgovor gdje dolazi do bijega ili suprotstavljanja stresnoj situaciji. U sljedećoj fazi kada se troše velike količine energije zbog trajne prisutnosti stresora i otpora pojedinca, može doći do iscrpljenosti organizma i pojave zdravstvenih problema. Visoka razina stresa kod zdravstvenih djelatnika može rezultirati depresijom, anksioznošću, sindromom izgaranja, a u ekstremnim slučajevima i posttraumatskim stresnim poremećajem. Cilj izlaganja je prikazati iskustva medicinskih sestara/medicinskih tehničara tijekom i nakon reanimacijskih postupaka u OHBP-u, te identificirati stresore povezane s reanimacijom. Za učinkovito rješavanje kriznih situacija kod zdravstvenih djelatnika, potrebna je dobra organizacija rada i suradnja u timu, te održavanje redovitih sastanaka nakon reanimacije. Radnom učinkovitošću moći će se pravovremeno i preventivno pružiti razni oblici podrške koji će pozitivno djelovati na zdravlje zdravstvenog osoblja i pacijenata. Oblici podrške mogu se odnositi na pružanje psihološke pomoći medicinskim sestrama/medicinskim tehničarima ili periodično izmještanje na radno mjesto gdje nisu učestale reanimacije pacijenata.
+Ključne riječi medicinska sestra/medicinski tehničar, stres, stresori, OHBP</t>
+  </si>
+  <si>
+    <t>Sažetak Dobrobit djelatnika hitne medicinske službe predstavlja važno područje s obzirom na specifične izazove koje nosi njihovo radno okruženje. Visoka razina stresa, smjenski rad i izloženost kriznim situacijama utječu na dobrobit djelatnika, životni stil te sposobnost održavanja ravnoteže između posla i privatnog života. Glavni cilj istraživanja bio je istražiti ključne čimbenike koji utječu na dobrobit djelatnika izvanbolničke hitne medicinske službe te predložiti učinkovite mjere za promicanje dobrobiti. 
+Metodologija Provedeno je kvalitativno istraživanje uz upotrebu dekriptivno interpretativne metode. Podaci su prikupljeni kroz individualne intervjue s djelatnicima izvanbolničke hitne medicinske službe u razdoblju od siječnja do travnja 2022. U uzorak je bilo uključeno 26 djelatnika izvanbolničke hitne medicinske službe (liječnici, medicinske sestre/tehničari i vozači), a podaci su bili analizirani tematskom analizom kako bi se identificirale ključne teme povezane s dobrobiti djelatnika. 
+Rezultati Identificirane su tri glavne teme: (1) Promicanje psihofizičkog zdravlja djelatnika; (2) Unaprjeđenje zdravog životnog stila djelatnika; (3) Jačanje ravnoteže između posla i privatnog života. Djelatnici navode brojne fizičke i psihičke poteškoće poput kroničnog umora, problema s mišićno koštanim sustavom i emocionalne iscrpljenosti. Ističu potrebu za boljim preventivnim programima i edukacijama usmjerenim na fizičko i psihičko zdravlje. Smatraju kako je potrebno ergonomski prilagoditi ambulantna vozila, osmisliti programe za povećanje fizičke kondicije te edukacije za prevenciju ozljeda, a posebno naglašavaju pružanje podrške i savjetovanja u području mentalnog zdravlja. Mnogi djelatnici navode manjak tjelesne aktivnosti, nezdrave navike i poremećaje spavanja kao ključne izazove. Naglašavaju potrebu za poticanjem zdravih životnih navika sa strane organizacije. Navode kako imaju poteškoće u održavanju socijalnih odnosa i obiteljskih veza zbog prirode posla, a rješenje vide u sigurnijem, podržavajućem i pozitivnijem okruženju koje uvažava njihove potrebe. 
+Rasprava i zaključak Rezultati prikazuju kako dobrobit djelatnika izvanbolničke hitne medicinske službe zahtijeva sustavni i holistički pristup koji uključuje preventivne mjere, unaprjeđenje zdravih životnih navika i stvaranje ravnoteže između profesionalnog i privatnog života. Ovo istraživanje naglašava važnost kontinuirane podrške djelatnicima, uvođenje programa za očuvanje zdravlja i dobrobiti te promociju pozitivnog radnog okruženja.
+Ključne riječi hitna medicinska služba, promocija zdravlja, zdravlje na radnom mjestu</t>
+  </si>
+  <si>
+    <t>Sažetak Zdravstveni djelatnici često se suočavaju s izazovima koji utječu na njihovo zadovoljstvo na radnom mjestu, što pak utječe na njihovu izvedbu i dobrobit. Razumijevanje čimbenika koji pridonose zadovoljstvu na radnom mjestu ključno je za razvoj učinkovitih strategija za rješavanje ovih izazova. Ovo je istraživanje imalo za cilj istražiti povezanost demografskih karakteristika, razina obrazovanja i radnog iskustva s različitim dimenzijama zadovoljstva na radnom mjestu među zdravstvenim radnicima. 
+Metode U istraživanju je sudjelovalo ukupno 176 zdravstvenih djelatnika Nastavnog zavoda za hitnu medicinu Grada Zagreba, medijana dobi od 40 godina (29-50). Uzorak se sastojao od 129 muškaraca (73,3%) i 47 žena (26,7%). Zadovoljstvo na radnom mjestu procijenjeno je kroz više dimenzija, uključujući ocjenu plaće, ocjenu napredovanja, ocjenu nadzora, dodatne beneficije, uvjetovane nagrade, radne uvjete, suradnike, prirodu posla i komunikaciju. Podaci su analizirani korištenjem medijana i interkvartilnih raspona (IQR), a razlike su testirane na statističku značajnost korištenjem p-vrijednosti. 
+Rezultati Uočene su značajne razlike u zadovoljstvu radnim mjestom ovisno o spolu, obrazovanju i radnom iskustvu. Žene su prijavile značajno više rezultate u plaćama (11 (6-13)) u usporedbi s muškarcima (8 (8,5-15) (p=0,003). Nasuprot tome, muškarci su postigli značajno više rezultate u dimenziji prirode posla (19 (16-21)) u usporedbi sa ženama (16 (13,5-18)) (p=0,001). Sudionici s višim razinama obrazovanja prijavili su više rezultate u plaćama u usporedbi s onima s nižim obrazovanjem (10). (8-14)) u odnosu na 8 (6-12); p=0,012). Međutim, sudionici s nižim razinama obrazovanja imali su značajno više rezultate u radnim uvjetima (14 (12-16) u odnosu na 12 (11-15); p=0,005) i prirodi posla (19 (16-21) u odnosu na 17 (4-20); p=0,001). Radno iskustvo također je utjecalo na razinu zadovoljstva. Sudionici s manje od 5 godina iskustva prijavili su najviše rezultate u radnim uvjetima (15 (12-16)), dok su oni s više od 40 godina imali najniže ocjene (7,5 (6,75-8,25); p=0,008). 
+Zaključak Ova studija ističe značajne razlike u zadovoljstvu radnim mjestom među zdravstvenim radnicima na temelju spola, obrazovanja i radnog iskustva. Žene su dale prednost financijskim aspektima zadovoljstva, dok su muškarci cijenili prirodu posla. Visoko obrazovanje povezano je s većim zadovoljstvom plaćom, ali nižim zadovoljstvom u operativnim dimenzijama i dimenzijama povezanim s poslom. Dodatno, zadovoljstvo radnim uvjetima značajno se smanjilo s povećanjem radnog iskustva. Ovi nalazi naglašavaju važnost prilagođenih politika na radnom mjestu i intervencija za rješavanje različitih potreba zdravstvenih radnika. Buduća bi istraživanja trebala istražiti dodatne čimbenike koji utječu na zadovoljstvo na radnom mjestu i procijeniti učinkovitost intervencija usmjerenih na poboljšanje dobrobiti zaposlenika. Ključne riječi zadovoljstvo poslom; hitne medicinske usluge; upravljanje osobljem</t>
+  </si>
+  <si>
+    <t>Sažetak Eksplantacija organa u Republici Hrvatskoj provodi se isključivo u slučajevima dokazane smrti velikog i malog mozga te moždanog debla, što zahtjeva visok stupanj organizacije i stručnosti zdravstvenog osoblja. Kontinuiranim usavršavanjem medicinskog kadra stječu se kompetencije te edukacijom populacije osigurava se rast broja donora i na taj se način povećava broj ozdravljenih i oporavljenih od neke kronične bolesti zbog koje su mnogi pacijenti imali život pun poteškoća i ograničenja koje su mogli uzrokovati skoru smrt. Potencijalnim donorom se smatra svaka osoba koja se ne nalazi u registru nedavatelja organa, a proces od donošenja odluke o doniranju do eksplantacije zahtijeva interdisciplinarnu suradnju medicinskog tima. Prilikom dokazivanja moždane smrti veliku ulogu ima medicinska sestra/medicinski tehničar u čije aktivnosti spada sam proces održavanja potencijalnog donora. Aktivnosti medicinske sestre/medicinskog tehničara obuhvaćaju niz zadataka, uključujući pripremu pacijenta (potencijalnog donora), materijala i instrumenata, provjeru valjanosti aparata koji će se koristiti prilikom dokazivanja moždane smrti, asistiranje liječniku te konstantna prisutnost za vrijeme kliničkih i parakliničkih pregleda za dokazivanje moždane smrti te samo poznavanje protokola dokazivanja moždane smrti. Medicinska sestra/medicinski tehničar je prva osoba do pacijenta te u brojnim slučajevima prva zapaža promjene i pravodobno reagira i obavještava liječnika o svim odstupanjima. Uloga medicinske sestre/tehničara u procesu održavanja potencijalnog donora uključuje kontinuirani nadzor vitalnih funkcija, odražavanje hemodinamske stabilnosti, pravovremeno reagiranje na hemodinamsku nestabilnost te samo korigiranje istog. Poznavanje same patofiziologije moždane smrti utječe na bolje razumijevanje onoga što radimo za vrijeme održavanja potencijalnog donora što je vrlo često izazov s aspekta održavanja kvalitetne perfuzije organa. U aktivnosti medicinske sestre/tehničara prilikom održavanja potencijalnog donora osim navedenog, potrebno je poznavati smjernice kod održavanja potencijalnog donora te pomoću tih smjernica osigurati kvalitetnu perfuziju organa u slučaju eksplantacije. Osim toga, u jedinicama intenzivnog liječenja rad medicinske sestre jest kompleksan te davanje ordinirane terapije, uzimanje uzoraka za određene i ciljane pretrage, praćenje laboratorijskih nalaza te uočavanje i prijavljivanje određenih odstupanja liječniku, praćenje izgleda kože, izgled izlučenih tekućina, praćenje količine unosa tekućine te tekućine koja se izlučuje, prevencija infekcija, održavanje normotermije te sama zdravstvena njega potencijalnog donora naglašava važnost rada medicinske sestre/tehničara kod potencijalnog donora. U jedinicama intenzivnog liječenja omogućava se kontinuirani monitoring vitalnih funkcija kako bi se mogle na vrijeme uočit promjene u određenim parametrima koje svojim mijenjanjem, odnosno pojavom hemodinamske nestabilnosti mogu utjecati na kvalitetu organa potencijalnog donora. Na takvom radnom mjestu potrebno je imati educirane medicinske sestre/tehničare koji svojim znanjem i vještinama pravovremeno prepoznaju te reagiraju u kriznim situacijama te koje blisko surađuju sa liječnicima (anesteziolozima) te timom za eksplantaciju. Stručnost, preciznost i posvećenost u obavljanju posla svakako utječu na očuvanje kvalitete organa kod potencijalnog donora. O tome koliko smo stručni u obavljanju navedenog vrlo humanog i izričito zahtjevnog oblika posla, govori činjenica da je Republika Hrvatska sa svojim stručnjacima u radu doniranja organa među prvima u svijetu. Iako smo mala država, u njoj žive i rade ljudi velikog srca. 
+Ključne riječi medicinska sestra, potencijalni donor, eksplantacija, edukacija</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -646,8 +729,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,6 +748,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -669,49 +765,65 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1025,496 +1137,556 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38" style="2"/>
+    <col min="3" max="3" width="54" style="1" customWidth="1"/>
+    <col min="4" max="5" width="38" style="1"/>
+    <col min="6" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="119.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="J3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="J5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="J6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="J7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="J8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="J9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="J10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="9" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="J11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="J12" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="J12" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="J13" s="3" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="J13" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="G14" s="5" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="G14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="J14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="J15" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="6" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="J16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="6" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="J17" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" s="6" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="J18" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="6" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="J19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="J20" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="6" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="J21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="6" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="J22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="132" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="E23" s="10"/>
+      <c r="J23" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="9" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="8" t="s">
+      <c r="J24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="10" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1525,13 +1697,13 @@
       <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1542,13 +1714,13 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data/3.xlsx
+++ b/data/3.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Programer\HDSHM kongres\11-03-2025\git finalno\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbonic\Desktop\programer\11-03-2025\git finalno\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0ABCA1-183E-41E7-9603-A376181FA4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -602,12 +601,6 @@
 Ključne riječi sepsa, septični šok, rana antibiotska terapija, bakterijemija</t>
   </si>
   <si>
-    <t>Sažetak Gama-hidroksibutirat (GHB) primarno se koristi u kliničkoj praksi za liječenje alkoholizma u kontroli simptoma ustezanja. Propisivanje recepata za GHB podliježe strogim regulatornim ograničenjima zbog velike zlouporabe. Zloupotrebljava se kao rekreacijska droga, poznat je i kao „droga za silovanje“, a ulični nazivi su „G“ i „tekući ecstasy“. U toksičnim dozama može uzrokovati depresiju disanja. Trenutačno ne postoji službeno odobren antidot u slučaju predoziranja. 
-Sve učestalije smrti zbog predoziranja GHB-om, važan su razlog za rano prepoznavanje osoba koje su pod utjecajem GHB-a kako bi se pravovremeno spriječili neželjeni događaji. Povraćanje u kombinaciji s gubitkom svijesti može izazvati smrt gušenjem, smrt može nastati i kao posljedica epileptičkog napada ili trauma za vrijeme napada. Timovi izvanbolničke hitne medicinske službe često su prvi u prilici prepoznati na mjestu intervencije tragove konzumiranja GHB-a. Najčešće se droga (bistra prozirna tekućina blagog specifičnog mirisa) nalazi u  bočicama  manjeg volumena s gumenim čepom i kapaljkom koja služi za izvlačenje tekućine. Zbog nepredvidivog trajanja i intenziteta učinka GHB-a, pacijente je nužno opservirati u bolničkim uvjetima uz monitoriranje vitalnih znakova do potpunog oporavka ili hospitalizirati. Liječenje se zasad temelji na suportivnoj terapiji. 
-Objavljena studija iz 2021. godine (Drug-drug interaction between diclofenac and gamma-hydroxybutyric acid; autora Rodriguez-Cruz, Ren, Morris) navodi diklofenak (Voltaren, Naklofen) te druge nesteroidne protuupalne lijekove kao potencijalne antidote. Zabilježen je pozitivan učinak ovih lijekova na toksičnost GHB-a smanjivši njegovu koncentraciju u mozgu, te poboljšavajući disanje jer je upravo depresija disanja glavni uzrok smrti kod intoksikacije GHB-om. Istraživanje je provedeno na životinjskim modelima. 
-Ključne riječi Gama-hidroksibutirat (GHB), depresija disanja, intoksikacija</t>
-  </si>
-  <si>
     <t>Sažetak Cerebrovaskularni inzult (CVI) smatramo jednim od vodećih uzroka smrtnosti i invalidnosti u Hrvatskoj. S godinama je postao jedan od javnozdravstvenih problema. CVI je hitno medicinsko stanje odnosno neurološki poremećaj koji nastaje zbog poremećaja cirkulacije u mozgu. Smatramo ga hitnim stanjem koje zahtijeva hitnu intervenciju, medicinsko zbrinjavanje te liječenje. Dijelimo ga u dvije glavne skupine: ishemijski i hemoragijski. Ishemijski moždani udar nastaje zbog prestanka protoka normalne cirkulacije kroz određenu krvnu žilu u mozgu, a najčešći uzrok je krvni ugrušak. Hemoragijski moždani udar nastaje zbog puknuća krvne žile koja uzrokuje krvarenje u okolinu mozga. Ljudi moraju biti svjesni rizičnih čimbenika koji mogu dovesti do takvog stanja, a tim saznanjem se može pomoći u njegovoj prevenciji koju smatramo ključnim faktorom u očuvanju zdravlja našeg organizma. Neki od rizičnih čimbenika su: pušenje, nezdrava prehrana, alkohol, debljina, stres, srčane bolesti, dijabetes, itd. Osim rizičnih čimbenika veliku ulogu u nastanku moždanog udara ima i genetska predispozicija. Zbrinjavanje takvih pacijenata u hitnoj službi zahtijeva timski rad te multidisciplinarni pristup. Zbrinjavanje pacijenta kreće pozivom hitne medicinske službe (HMS) od strane obitelji ili poznanika unesrećene osobe ili slučajnog prolaznika. Dolaskom HMS do unesrećenog na mjesto događaja osoblje HMS započinje protokol za zbrinjavanje moždanog udara. Prijevoz pacijenta u bolničku ustanovu ne obavi uvijek izvanbolnička HMS jer se obitelj ili sam pacijent odluče na samostalan dolazak. Bitno je da osoblje HMS-a tijekom prijevoza pacijenta u obližnju bolnicu obavijesti bolnicu o dolasku pacijenta sa suspektnim moždanim udarom. Pacijenti dovezeni u pratnji djelatnika izvanbolničke HMS u većini slučajeva su u težem kliničkom stanju te predstavljaju veću hitnost za zbrinjavanje i prevenciju ili smanjenje invaliditeta. Nakon dolaska u OHBP, procjene i zbrinjavanja, bitno je što ranije obaviti radiološku dijagnostiku i započeti liječenje, te nakon toga pacijenta rasporediti prema njegovom stanju na odjel neurologije, jedinicu intenzivnog liječenja ili dogovoriti hitni transport u drugu ustanovu radi nastavka liječenja. Vrijeme je ključan faktor u zbrinjavanju moždanog udara jer moždano tkivo nakon nastanka ishemije ili hemoragije rapidno propada uzrokujući niz problema ovisno o dio mozga koji je zahvaćen. Poboljšanje zbrinjavanja moždanog udara u hitnoj službi ima direktan utjecaj na preživljavanje i na invaliditet kod pacijenta. Bolničke ustanove u RH su definirale svoje protokole za zbrinjavanje moždanog udara, ali svakako u nekim segmentima postoji dodatna mogućnost unaprjeđenja istog. ‘’Vrijeme je mozak’’, naziv je jednog od projekata EU koji je za cilj odredio povećanje stope preživljavanja i smanjenja invaliditeta kod osoba s moždanim udarom. U suradnji s ‘’Angels’’ organizacijom provedene su vježbe i edukacije u ustanovama u RH s ciljem da se čim prije potvrdi dijagnoza i počne aktivno liječenje. Upravo taj projekt EU ukazao je na prostor za napredovanje koji ima svaka hitna služba u smislu veće efikasnosti i poboljšanjem ishoda kod moždanog udara. Za najefektivniji način zbrinjavanja potreban je uhodan protokol i dobra suradnja izvanbolničke HMS i OHBP-a. Pored protokola, izrazito je važna educiranost osoblja što je ključno kako bi sve što je potrebno za zbrinjavanje takvog pacijenta bilo odrađeno brzo i efikasno.
 Ključne riječi hitna medicinska služba, CVI, Objedinjeni hitni bolnički prijem</t>
   </si>
@@ -648,27 +641,33 @@
 Ključne riječi medicinska sestra/medicinski tehničar, stres, stresori, OHBP</t>
   </si>
   <si>
+    <t>Sažetak Eksplantacija organa u Republici Hrvatskoj provodi se isključivo u slučajevima dokazane smrti velikog i malog mozga te moždanog debla, što zahtjeva visok stupanj organizacije i stručnosti zdravstvenog osoblja. Kontinuiranim usavršavanjem medicinskog kadra stječu se kompetencije te edukacijom populacije osigurava se rast broja donora i na taj se način povećava broj ozdravljenih i oporavljenih od neke kronične bolesti zbog koje su mnogi pacijenti imali život pun poteškoća i ograničenja koje su mogli uzrokovati skoru smrt. Potencijalnim donorom se smatra svaka osoba koja se ne nalazi u registru nedavatelja organa, a proces od donošenja odluke o doniranju do eksplantacije zahtijeva interdisciplinarnu suradnju medicinskog tima. Prilikom dokazivanja moždane smrti veliku ulogu ima medicinska sestra/medicinski tehničar u čije aktivnosti spada sam proces održavanja potencijalnog donora. Aktivnosti medicinske sestre/medicinskog tehničara obuhvaćaju niz zadataka, uključujući pripremu pacijenta (potencijalnog donora), materijala i instrumenata, provjeru valjanosti aparata koji će se koristiti prilikom dokazivanja moždane smrti, asistiranje liječniku te konstantna prisutnost za vrijeme kliničkih i parakliničkih pregleda za dokazivanje moždane smrti te samo poznavanje protokola dokazivanja moždane smrti. Medicinska sestra/medicinski tehničar je prva osoba do pacijenta te u brojnim slučajevima prva zapaža promjene i pravodobno reagira i obavještava liječnika o svim odstupanjima. Uloga medicinske sestre/tehničara u procesu održavanja potencijalnog donora uključuje kontinuirani nadzor vitalnih funkcija, odražavanje hemodinamske stabilnosti, pravovremeno reagiranje na hemodinamsku nestabilnost te samo korigiranje istog. Poznavanje same patofiziologije moždane smrti utječe na bolje razumijevanje onoga što radimo za vrijeme održavanja potencijalnog donora što je vrlo često izazov s aspekta održavanja kvalitetne perfuzije organa. U aktivnosti medicinske sestre/tehničara prilikom održavanja potencijalnog donora osim navedenog, potrebno je poznavati smjernice kod održavanja potencijalnog donora te pomoću tih smjernica osigurati kvalitetnu perfuziju organa u slučaju eksplantacije. Osim toga, u jedinicama intenzivnog liječenja rad medicinske sestre jest kompleksan te davanje ordinirane terapije, uzimanje uzoraka za određene i ciljane pretrage, praćenje laboratorijskih nalaza te uočavanje i prijavljivanje određenih odstupanja liječniku, praćenje izgleda kože, izgled izlučenih tekućina, praćenje količine unosa tekućine te tekućine koja se izlučuje, prevencija infekcija, održavanje normotermije te sama zdravstvena njega potencijalnog donora naglašava važnost rada medicinske sestre/tehničara kod potencijalnog donora. U jedinicama intenzivnog liječenja omogućava se kontinuirani monitoring vitalnih funkcija kako bi se mogle na vrijeme uočit promjene u određenim parametrima koje svojim mijenjanjem, odnosno pojavom hemodinamske nestabilnosti mogu utjecati na kvalitetu organa potencijalnog donora. Na takvom radnom mjestu potrebno je imati educirane medicinske sestre/tehničare koji svojim znanjem i vještinama pravovremeno prepoznaju te reagiraju u kriznim situacijama te koje blisko surađuju sa liječnicima (anesteziolozima) te timom za eksplantaciju. Stručnost, preciznost i posvećenost u obavljanju posla svakako utječu na očuvanje kvalitete organa kod potencijalnog donora. O tome koliko smo stručni u obavljanju navedenog vrlo humanog i izričito zahtjevnog oblika posla, govori činjenica da je Republika Hrvatska sa svojim stručnjacima u radu doniranja organa među prvima u svijetu. Iako smo mala država, u njoj žive i rade ljudi velikog srca. 
+Ključne riječi medicinska sestra, potencijalni donor, eksplantacija, edukacija</t>
+  </si>
+  <si>
+    <t>Sažetak Gama-hidroksibutirat (GHB) primarno se koristi u kliničkoj praksi za liječenje alkoholizma u kontroli simptoma ustezanja. Propisivanje recepata za GHB podliježe strogim regulatornim ograničenjima zbog velike zlouporabe. Zloupotrebljava se kao rekreacijska droga, poznat je i kao „droga za silovanje“, a ulični nazivi su „G“ i „tekući ecstasy“. U toksičnim dozama može uzrokovati depresiju disanja. Trenutačno ne postoji službeno odobren antidot u slučaju predoziranja. 
+Sve učestalije smrti zbog predoziranja GHB-om, važan su razlog za rano prepoznavanje osoba koje su pod utjecajem GHB-a kako bi se pravovremeno spriječili neželjeni događaji. Povraćanje u kombinaciji s gubitkom svijesti može izazvati smrt gušenjem, smrt može nastati i kao posljedica epileptičkog napada ili trauma za vrijeme napada. Timovi izvanbolničke hitne medicinske službe često su prvi u prilici prepoznati na mjestu intervencije tragove konzumiranja GHB-a. Najčešće se droga (bistra prozirna tekućina blagog specifičnog mirisa) nalazi u  bočicama  manjeg volumena s gumenim čepom i kapaljkom koja služi za izvlačenje tekućine. Zbog nepredvidivog trajanja i intenziteta učinka GHB-a, pacijente je nužno opservirati u bolničkim uvjetima uz monitoriranje vitalnih znakova do potpunog oporavka ili hospitalizirati. Liječenje se zasad temelji na suportivnoj terapiji. 
+Objavljena studija iz 2021. godine (Drug-drug interaction between diclofenac and gamma-hydroxybutyric acid: autora Rodriguez-Cruz, Ren, Morris) navodi diklofenak (Voltaren, Naklofen) te druge nesteroidne protuupalne lijekove kao potencijalne antidote. Zabilježen je pozitivan učinak ovih lijekova na toksičnost GHB-a smanjivši njegovu koncentraciju u mozgu, te poboljšavajući disanje jer je upravo depresija disanja glavni uzrok smrti kod intoksikacije GHB-om. Istraživanje je provedeno na životinjskim modelima. 
+Ključne riječi Gama-hidroksibutirat (GHB), depresija disanja, intoksikacija</t>
+  </si>
+  <si>
     <t>Sažetak Dobrobit djelatnika hitne medicinske službe predstavlja važno područje s obzirom na specifične izazove koje nosi njihovo radno okruženje. Visoka razina stresa, smjenski rad i izloženost kriznim situacijama utječu na dobrobit djelatnika, životni stil te sposobnost održavanja ravnoteže između posla i privatnog života. Glavni cilj istraživanja bio je istražiti ključne čimbenike koji utječu na dobrobit djelatnika izvanbolničke hitne medicinske službe te predložiti učinkovite mjere za promicanje dobrobiti. 
 Metodologija Provedeno je kvalitativno istraživanje uz upotrebu dekriptivno interpretativne metode. Podaci su prikupljeni kroz individualne intervjue s djelatnicima izvanbolničke hitne medicinske službe u razdoblju od siječnja do travnja 2022. U uzorak je bilo uključeno 26 djelatnika izvanbolničke hitne medicinske službe (liječnici, medicinske sestre/tehničari i vozači), a podaci su bili analizirani tematskom analizom kako bi se identificirale ključne teme povezane s dobrobiti djelatnika. 
-Rezultati Identificirane su tri glavne teme: (1) Promicanje psihofizičkog zdravlja djelatnika; (2) Unaprjeđenje zdravog životnog stila djelatnika; (3) Jačanje ravnoteže između posla i privatnog života. Djelatnici navode brojne fizičke i psihičke poteškoće poput kroničnog umora, problema s mišićno koštanim sustavom i emocionalne iscrpljenosti. Ističu potrebu za boljim preventivnim programima i edukacijama usmjerenim na fizičko i psihičko zdravlje. Smatraju kako je potrebno ergonomski prilagoditi ambulantna vozila, osmisliti programe za povećanje fizičke kondicije te edukacije za prevenciju ozljeda, a posebno naglašavaju pružanje podrške i savjetovanja u području mentalnog zdravlja. Mnogi djelatnici navode manjak tjelesne aktivnosti, nezdrave navike i poremećaje spavanja kao ključne izazove. Naglašavaju potrebu za poticanjem zdravih životnih navika sa strane organizacije. Navode kako imaju poteškoće u održavanju socijalnih odnosa i obiteljskih veza zbog prirode posla, a rješenje vide u sigurnijem, podržavajućem i pozitivnijem okruženju koje uvažava njihove potrebe. 
+Rezultati Identificirane su tri glavne teme: (1) Promicanje psihofizičkog zdravlja djelatnika: (2) Unaprjeđenje zdravog životnog stila djelatnika: (3) Jačanje ravnoteže između posla i privatnog života. Djelatnici navode brojne fizičke i psihičke poteškoće poput kroničnog umora, problema s mišićno koštanim sustavom i emocionalne iscrpljenosti. Ističu potrebu za boljim preventivnim programima i edukacijama usmjerenim na fizičko i psihičko zdravlje. Smatraju kako je potrebno ergonomski prilagoditi ambulantna vozila, osmisliti programe za povećanje fizičke kondicije te edukacije za prevenciju ozljeda, a posebno naglašavaju pružanje podrške i savjetovanja u području mentalnog zdravlja. Mnogi djelatnici navode manjak tjelesne aktivnosti, nezdrave navike i poremećaje spavanja kao ključne izazove. Naglašavaju potrebu za poticanjem zdravih životnih navika sa strane organizacije. Navode kako imaju poteškoće u održavanju socijalnih odnosa i obiteljskih veza zbog prirode posla, a rješenje vide u sigurnijem, podržavajućem i pozitivnijem okruženju koje uvažava njihove potrebe. 
 Rasprava i zaključak Rezultati prikazuju kako dobrobit djelatnika izvanbolničke hitne medicinske službe zahtijeva sustavni i holistički pristup koji uključuje preventivne mjere, unaprjeđenje zdravih životnih navika i stvaranje ravnoteže između profesionalnog i privatnog života. Ovo istraživanje naglašava važnost kontinuirane podrške djelatnicima, uvođenje programa za očuvanje zdravlja i dobrobiti te promociju pozitivnog radnog okruženja.
 Ključne riječi hitna medicinska služba, promocija zdravlja, zdravlje na radnom mjestu</t>
   </si>
   <si>
     <t>Sažetak Zdravstveni djelatnici često se suočavaju s izazovima koji utječu na njihovo zadovoljstvo na radnom mjestu, što pak utječe na njihovu izvedbu i dobrobit. Razumijevanje čimbenika koji pridonose zadovoljstvu na radnom mjestu ključno je za razvoj učinkovitih strategija za rješavanje ovih izazova. Ovo je istraživanje imalo za cilj istražiti povezanost demografskih karakteristika, razina obrazovanja i radnog iskustva s različitim dimenzijama zadovoljstva na radnom mjestu među zdravstvenim radnicima. 
 Metode U istraživanju je sudjelovalo ukupno 176 zdravstvenih djelatnika Nastavnog zavoda za hitnu medicinu Grada Zagreba, medijana dobi od 40 godina (29-50). Uzorak se sastojao od 129 muškaraca (73,3%) i 47 žena (26,7%). Zadovoljstvo na radnom mjestu procijenjeno je kroz više dimenzija, uključujući ocjenu plaće, ocjenu napredovanja, ocjenu nadzora, dodatne beneficije, uvjetovane nagrade, radne uvjete, suradnike, prirodu posla i komunikaciju. Podaci su analizirani korištenjem medijana i interkvartilnih raspona (IQR), a razlike su testirane na statističku značajnost korištenjem p-vrijednosti. 
-Rezultati Uočene su značajne razlike u zadovoljstvu radnim mjestom ovisno o spolu, obrazovanju i radnom iskustvu. Žene su prijavile značajno više rezultate u plaćama (11 (6-13)) u usporedbi s muškarcima (8 (8,5-15) (p=0,003). Nasuprot tome, muškarci su postigli značajno više rezultate u dimenziji prirode posla (19 (16-21)) u usporedbi sa ženama (16 (13,5-18)) (p=0,001). Sudionici s višim razinama obrazovanja prijavili su više rezultate u plaćama u usporedbi s onima s nižim obrazovanjem (10). (8-14)) u odnosu na 8 (6-12); p=0,012). Međutim, sudionici s nižim razinama obrazovanja imali su značajno više rezultate u radnim uvjetima (14 (12-16) u odnosu na 12 (11-15); p=0,005) i prirodi posla (19 (16-21) u odnosu na 17 (4-20); p=0,001). Radno iskustvo također je utjecalo na razinu zadovoljstva. Sudionici s manje od 5 godina iskustva prijavili su najviše rezultate u radnim uvjetima (15 (12-16)), dok su oni s više od 40 godina imali najniže ocjene (7,5 (6,75-8,25); p=0,008). 
-Zaključak Ova studija ističe značajne razlike u zadovoljstvu radnim mjestom među zdravstvenim radnicima na temelju spola, obrazovanja i radnog iskustva. Žene su dale prednost financijskim aspektima zadovoljstva, dok su muškarci cijenili prirodu posla. Visoko obrazovanje povezano je s većim zadovoljstvom plaćom, ali nižim zadovoljstvom u operativnim dimenzijama i dimenzijama povezanim s poslom. Dodatno, zadovoljstvo radnim uvjetima značajno se smanjilo s povećanjem radnog iskustva. Ovi nalazi naglašavaju važnost prilagođenih politika na radnom mjestu i intervencija za rješavanje različitih potreba zdravstvenih radnika. Buduća bi istraživanja trebala istražiti dodatne čimbenike koji utječu na zadovoljstvo na radnom mjestu i procijeniti učinkovitost intervencija usmjerenih na poboljšanje dobrobiti zaposlenika. Ključne riječi zadovoljstvo poslom; hitne medicinske usluge; upravljanje osobljem</t>
-  </si>
-  <si>
-    <t>Sažetak Eksplantacija organa u Republici Hrvatskoj provodi se isključivo u slučajevima dokazane smrti velikog i malog mozga te moždanog debla, što zahtjeva visok stupanj organizacije i stručnosti zdravstvenog osoblja. Kontinuiranim usavršavanjem medicinskog kadra stječu se kompetencije te edukacijom populacije osigurava se rast broja donora i na taj se način povećava broj ozdravljenih i oporavljenih od neke kronične bolesti zbog koje su mnogi pacijenti imali život pun poteškoća i ograničenja koje su mogli uzrokovati skoru smrt. Potencijalnim donorom se smatra svaka osoba koja se ne nalazi u registru nedavatelja organa, a proces od donošenja odluke o doniranju do eksplantacije zahtijeva interdisciplinarnu suradnju medicinskog tima. Prilikom dokazivanja moždane smrti veliku ulogu ima medicinska sestra/medicinski tehničar u čije aktivnosti spada sam proces održavanja potencijalnog donora. Aktivnosti medicinske sestre/medicinskog tehničara obuhvaćaju niz zadataka, uključujući pripremu pacijenta (potencijalnog donora), materijala i instrumenata, provjeru valjanosti aparata koji će se koristiti prilikom dokazivanja moždane smrti, asistiranje liječniku te konstantna prisutnost za vrijeme kliničkih i parakliničkih pregleda za dokazivanje moždane smrti te samo poznavanje protokola dokazivanja moždane smrti. Medicinska sestra/medicinski tehničar je prva osoba do pacijenta te u brojnim slučajevima prva zapaža promjene i pravodobno reagira i obavještava liječnika o svim odstupanjima. Uloga medicinske sestre/tehničara u procesu održavanja potencijalnog donora uključuje kontinuirani nadzor vitalnih funkcija, odražavanje hemodinamske stabilnosti, pravovremeno reagiranje na hemodinamsku nestabilnost te samo korigiranje istog. Poznavanje same patofiziologije moždane smrti utječe na bolje razumijevanje onoga što radimo za vrijeme održavanja potencijalnog donora što je vrlo često izazov s aspekta održavanja kvalitetne perfuzije organa. U aktivnosti medicinske sestre/tehničara prilikom održavanja potencijalnog donora osim navedenog, potrebno je poznavati smjernice kod održavanja potencijalnog donora te pomoću tih smjernica osigurati kvalitetnu perfuziju organa u slučaju eksplantacije. Osim toga, u jedinicama intenzivnog liječenja rad medicinske sestre jest kompleksan te davanje ordinirane terapije, uzimanje uzoraka za određene i ciljane pretrage, praćenje laboratorijskih nalaza te uočavanje i prijavljivanje određenih odstupanja liječniku, praćenje izgleda kože, izgled izlučenih tekućina, praćenje količine unosa tekućine te tekućine koja se izlučuje, prevencija infekcija, održavanje normotermije te sama zdravstvena njega potencijalnog donora naglašava važnost rada medicinske sestre/tehničara kod potencijalnog donora. U jedinicama intenzivnog liječenja omogućava se kontinuirani monitoring vitalnih funkcija kako bi se mogle na vrijeme uočit promjene u određenim parametrima koje svojim mijenjanjem, odnosno pojavom hemodinamske nestabilnosti mogu utjecati na kvalitetu organa potencijalnog donora. Na takvom radnom mjestu potrebno je imati educirane medicinske sestre/tehničare koji svojim znanjem i vještinama pravovremeno prepoznaju te reagiraju u kriznim situacijama te koje blisko surađuju sa liječnicima (anesteziolozima) te timom za eksplantaciju. Stručnost, preciznost i posvećenost u obavljanju posla svakako utječu na očuvanje kvalitete organa kod potencijalnog donora. O tome koliko smo stručni u obavljanju navedenog vrlo humanog i izričito zahtjevnog oblika posla, govori činjenica da je Republika Hrvatska sa svojim stručnjacima u radu doniranja organa među prvima u svijetu. Iako smo mala država, u njoj žive i rade ljudi velikog srca. 
-Ključne riječi medicinska sestra, potencijalni donor, eksplantacija, edukacija</t>
+Rezultati Uočene su značajne razlike u zadovoljstvu radnim mjestom ovisno o spolu, obrazovanju i radnom iskustvu. Žene su prijavile značajno više rezultate u plaćama (11 (6-13)) u usporedbi s muškarcima (8 (8,5-15) (p=0,003). Nasuprot tome, muškarci su postigli značajno više rezultate u dimenziji prirode posla (19 (16-21)) u usporedbi sa ženama (16 (13,5-18)) (p=0,001). Sudionici s višim razinama obrazovanja prijavili su više rezultate u plaćama u usporedbi s onima s nižim obrazovanjem (10). (8-14)) u odnosu na 8 (6-12): p=0,012). Međutim, sudionici s nižim razinama obrazovanja imali su značajno više rezultate u radnim uvjetima (14 (12-16) u odnosu na 12 (11-15): p=0,005) i prirodi posla (19 (16-21) u odnosu na 17 (4-20): p=0,001). Radno iskustvo također je utjecalo na razinu zadovoljstva. Sudionici s manje od 5 godina iskustva prijavili su najviše rezultate u radnim uvjetima (15 (12-16)), dok su oni s više od 40 godina imali najniže ocjene (7,5 (6,75-8,25): p=0,008). 
+Zaključak Ova studija ističe značajne razlike u zadovoljstvu radnim mjestom među zdravstvenim radnicima na temelju spola, obrazovanja i radnog iskustva. Žene su dale prednost financijskim aspektima zadovoljstva, dok su muškarci cijenili prirodu posla. Visoko obrazovanje povezano je s većim zadovoljstvom plaćom, ali nižim zadovoljstvom u operativnim dimenzijama i dimenzijama povezanim s poslom. Dodatno, zadovoljstvo radnim uvjetima značajno se smanjilo s povećanjem radnog iskustva. Ovi nalazi naglašavaju važnost prilagođenih politika na radnom mjestu i intervencija za rješavanje različitih potreba zdravstvenih radnika. Buduća bi istraživanja trebala istražiti dodatne čimbenike koji utječu na zadovoljstvo na radnom mjestu i procijeniti učinkovitost intervencija usmjerenih na poboljšanje dobrobiti zaposlenika. Ključne riječi zadovoljstvo poslom: hitne medicinske usluge: upravljanje osobljem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1134,11 +1133,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1336,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1359,7 +1358,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,7 +1381,7 @@
         <v>6</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="9" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1405,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1479,7 +1478,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1502,7 +1501,7 @@
         <v>6</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -1548,10 +1547,10 @@
         <v>6</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1574,7 +1573,7 @@
         <v>6</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1597,7 +1596,7 @@
         <v>6</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1620,7 +1619,7 @@
         <v>6</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1643,7 +1642,7 @@
         <v>6</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">

--- a/data/3.xlsx
+++ b/data/3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tbonic\Desktop\programer\11-03-2025\git finalno\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\HDSHM kongres\12-03-2025\git finalno\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128F0144-16B5-4C50-B346-EBB3DB9C3A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="128">
   <si>
     <t>VRSTA</t>
   </si>
@@ -342,243 +343,6 @@
   </si>
   <si>
     <t>CLOSING OF THE CONGRESS</t>
-  </si>
-  <si>
-    <t>Zvonimir Banoža, Matija Radobuljac, Sanja Pavić Jelečki, Suzana Palatinuš, Ivana Kralj, Saša Balija, Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc, Suzana Palatinuš, Barbara Samvik, Kristijan Štefanec, Nikola Čopor, Ivica Bračko, Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">P-1:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Anafilaktički šok </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Zvonimir Banoža, Matija Radobuljac
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">P-2:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Disekcija aorte </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Sanja Pavić Jelečki
-P-3:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Edukacija zaposlenika Zavoda za hitnu medicinu Krapinsko-zagorske županije </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Suzana Palatinuš
-P-4:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Inovativni pristupi u edukaciji hitnih stanja </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Ivana Kralj, Saša Balija
-P-5:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Multidisciplinarni pristup u zbrinjavanju trudnice s abrupcijom placente od HMP-a, rađaone do operacijske sale</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc
-P-6:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Reanimacija u izvanbolničkim uvjetima </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Suzana Palatinuš
-P-7:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stavovi građana o oživljavanju osoba van bolnice i DNR (Do Not Resuscitate) - “Ne oživljavaj” obrascu</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Barbara Samvik, Kristijan Štefanec, Nikola Čopor, Ivica Bračko
-P-8:   </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Važnost prepoznavanja simptoma i znakova kardiogenog šoka kod pacijenata u OHBP-u s osvrtom na slučaj pacijenta s postinfarktnom rupturom septuma</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
-    </r>
-  </si>
-  <si>
-    <t>POSTER LIST
-P—1  Anaphylactic shock,
-Zvonimir Banoža, Matija Radobuljac
-P—2  Aortic dissection
-Sanja Pavić Jelečki
-P—3  Education of employees of the Institute of Emergency Medicine
-of Krapina - Zagorje County
-Suzana Palatinuš
-P—4  Inhalation Analgesia in Emergency Medicine: Application of Penthrox
-Anastazija Ramljak, Anita Krnjak
-P—5  Innovative Approaches in Emergency Education
-Ivana Kralj, Saša Balija
-P—6  Multidisciplinary Approach in Managing a Pregnant Woman with
-Placental Abruption – From EMS to Delivery Room and Operating
-Theatre
-Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja,
-Milena Škvorc
-P—7  Resuscitation in out-of-hospital conditions
-Suzana Palatinuš
-P—8  Stavovi građana o oživljavanju osoba van bolnice i DNR
-(Do Not Resuscitate) - “Ne oživljavaj” obrascu
-Barbara Samvik, Kristijan Štefanec, Nikola Čopor, Ivica Bračko
-P—9  The importance of recognizing the symptoms and signs of
-cardiogenic shock in patients in the ED with reference to the case
-of a patient with postinfarction septal rupture
-Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
   </si>
   <si>
     <t>Sažetak Automotodrom Grobnik, smješten u Hrvatskoj, predstavlja važan centar profesionalnog moto sporta u regiji. Ova trkaća staza, poznata po tehničkoj zahtjevnosti i velikim brzinama, redovito privlači vrhunske vozače na nacionalna i međunarodna natjecanja, ali i na treninge te testiranja vozila. Ipak, moto sport nosi iznimno visok rizik, čime postavlja velike izazove pred medicinske timove i sigurnosne protokole. Ozljede u moto sportu česte su i raznovrsne, a među najčešćima su prijelomi kostiju, posebno ključne kosti, ruku i nogu. Ozljede glave i mozga, poput potresa mozga i kontuzija, i dalje su prisutne unatoč vrhunskoj zaštitnoj opremi. Udari u kralježnicu mogu izazvati trajna oštećenja, uključujući paralizu, dok unutarnje ozljede, poput oštećenja jetre, slezene ili pluća, često predstavljaju ozbiljniju prijetnju od vanjskih povreda. Dodatno, pri padovima na velikim brzinama dolazi do abrazija i opeklina uzrokovanih trenjem s asfaltom, čak i kod upotrebe zaštitne opreme. Napredak u tehnologiji značajno je smanjio rizike za vozače. Zaštitna oprema danas uključuje odijela s ugrađenim zračnim jastucima koji se aktiviraju prilikom pada, kao i visokokvalitetne kacige koje pružaju maksimalnu zaštitu glave. Modernizacija staza, uključujući šire izletne zone i sigurnosne barijere, dodatno doprinosi smanjenju težine nesreća. Na Grobniku, medicinski timovi igraju ključnu ulogu u osiguravanju brze i učinkovite intervencije, čime se minimiziraju posljedice ozljeda.
@@ -663,12 +427,65 @@
 Rezultati Uočene su značajne razlike u zadovoljstvu radnim mjestom ovisno o spolu, obrazovanju i radnom iskustvu. Žene su prijavile značajno više rezultate u plaćama (11 (6-13)) u usporedbi s muškarcima (8 (8,5-15) (p=0,003). Nasuprot tome, muškarci su postigli značajno više rezultate u dimenziji prirode posla (19 (16-21)) u usporedbi sa ženama (16 (13,5-18)) (p=0,001). Sudionici s višim razinama obrazovanja prijavili su više rezultate u plaćama u usporedbi s onima s nižim obrazovanjem (10). (8-14)) u odnosu na 8 (6-12): p=0,012). Međutim, sudionici s nižim razinama obrazovanja imali su značajno više rezultate u radnim uvjetima (14 (12-16) u odnosu na 12 (11-15): p=0,005) i prirodi posla (19 (16-21) u odnosu na 17 (4-20): p=0,001). Radno iskustvo također je utjecalo na razinu zadovoljstva. Sudionici s manje od 5 godina iskustva prijavili su najviše rezultate u radnim uvjetima (15 (12-16)), dok su oni s više od 40 godina imali najniže ocjene (7,5 (6,75-8,25): p=0,008). 
 Zaključak Ova studija ističe značajne razlike u zadovoljstvu radnim mjestom među zdravstvenim radnicima na temelju spola, obrazovanja i radnog iskustva. Žene su dale prednost financijskim aspektima zadovoljstva, dok su muškarci cijenili prirodu posla. Visoko obrazovanje povezano je s većim zadovoljstvom plaćom, ali nižim zadovoljstvom u operativnim dimenzijama i dimenzijama povezanim s poslom. Dodatno, zadovoljstvo radnim uvjetima značajno se smanjilo s povećanjem radnog iskustva. Ovi nalazi naglašavaju važnost prilagođenih politika na radnom mjestu i intervencija za rješavanje različitih potreba zdravstvenih radnika. Buduća bi istraživanja trebala istražiti dodatne čimbenike koji utječu na zadovoljstvo na radnom mjestu i procijeniti učinkovitost intervencija usmjerenih na poboljšanje dobrobiti zaposlenika. Ključne riječi zadovoljstvo poslom: hitne medicinske usluge: upravljanje osobljem</t>
   </si>
+  <si>
+    <t>Ručak</t>
+  </si>
+  <si>
+    <t>14:00 - 16:00</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>P—1  Anaphylactic shock,
+Zvonimir Banoža, Matija Radobuljac
+P—2  Aortic dissection
+Sanja Pavić Jelečki
+P—3  Education of employees of the Institute of Emergency Medicine of Krapina - Zagorje County
+Suzana Palatinuš
+P—4  Inhalation Analgesia in Emergency Medicine: Application of Penthrox
+Anastazija Ramljak, Anita Krnjak
+P—5  Innovative Approaches in Emergency Education
+Ivana Kralj, Saša Balija
+P—6   Multidisciplinary Approach in Managing a Pregnant Woman with Placental Abruption – From EMS to Delivery Room and Operating Theatre
+Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc
+P—7 Resuscitation in out-of-hospital conditions
+Suzana Palatinuš
+P—8 Stavovi građana o oživljavanju osoba van bolnice i DNR (Do Not Resuscitate) - “Ne oživljavaj” obrascu
+Barbara Samvik, Kristijan Štefanes, Nikola Čopor, Ivica Bračko
+P—9 The importance of recognizing the symptoms and signs of cardiogenic shock in patients in the ED with reference to the case of a patient with postinfarction septal rupture
+Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
+  </si>
+  <si>
+    <t>P—1    Anafilaktički šok,
+Zvonimir Banoža, Matija Radobuljac
+P—2    Disekcija aorte
+Sanja Pavić Jelečki
+P—3    Edukacija zaposlenika Zavoda za hitnu medicinu
+Krapinsko-zagorske županije
+Suzana Palatinuš
+P—4    Inhalacijska analgezija u hitnoj medicini: primjena Penthroxa
+Anastazija Ramljak, Anita Krnjak
+P—5    Inovativni pristupi u edukaciji hitnih stanja
+Ivana Kralj, Saša Balija
+P—6    Multidisciplinarni pristup u zbrinjavanju trudnice s abrupcijom placente od HMP-a, rađaone do operacijske sale
+Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc
+P—7    Reanimacija u izvanbolničkim uvjetima
+Suzana Palatinuš
+P—8    Stavovi građana o oživljavanju osoba van bolnice i DNR (Do Not Resuscitate) - “Ne oživljavaj” obrascu
+Barbara Samvik, Kristijan Štefanes, Nikola Čopor, Ivica Bračko
+P—9    Važnost prepoznavanja simptoma i znakova kardiogenog šoka kod pacijenata u OHBP-u s osvrtom na slučaj pacijenta s postinfarktnom rupturom septuma
+Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
+  </si>
+  <si>
+    <t>Zvonimir Banoža, Matija Radobuljac, Sanja Pavić Jelečki, Suzana Palatinuš, Anastazija Ramljak, Anita Krnjak, Ivana Kralj, Saša Balija, Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc, Suzana Palatinuš, Barbara Samvik, Kristijan Štefanes, Nikola Čopor, Ivica Bračko, Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,34 +516,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -782,7 +576,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -815,7 +609,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1133,11 +927,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1220,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1243,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1266,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1289,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1312,7 +1106,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1335,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1358,7 +1152,7 @@
         <v>6</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1381,7 +1175,7 @@
         <v>6</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="9" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1404,7 +1198,7 @@
         <v>6</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1478,7 +1272,7 @@
         <v>6</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="6" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1501,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1524,7 +1318,7 @@
         <v>6</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -1547,10 +1341,10 @@
         <v>6</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1573,7 +1367,7 @@
         <v>6</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1596,7 +1390,7 @@
         <v>6</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,7 +1413,7 @@
         <v>6</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1642,7 +1436,7 @@
         <v>6</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1677,16 +1471,16 @@
         <v>102</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="J24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
@@ -1721,6 +1515,23 @@
       </c>
       <c r="J26" s="2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/3.xlsx
+++ b/data/3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\HDSHM kongres\12-03-2025\git finalno\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128F0144-16B5-4C50-B346-EBB3DB9C3A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C7CB3E-6DF4-4373-A9CC-D000EF8D3936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
     <t>P—1    Anafilaktički šok,
 Zvonimir Banoža, Matija Radobuljac
 P—2    Disekcija aorte
-Sanja Pavić Jelečki
+Sanja Pavić Jelečki, Katarina Josipović, Martina Mikšaj
 P—3    Edukacija zaposlenika Zavoda za hitnu medicinu
 Krapinsko-zagorske županije
 Suzana Palatinuš
@@ -478,7 +478,7 @@
 Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
   </si>
   <si>
-    <t>Zvonimir Banoža, Matija Radobuljac, Sanja Pavić Jelečki, Suzana Palatinuš, Anastazija Ramljak, Anita Krnjak, Ivana Kralj, Saša Balija, Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc, Suzana Palatinuš, Barbara Samvik, Kristijan Štefanes, Nikola Čopor, Ivica Bračko, Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
+    <t>Zvonimir Banoža, Matija Radobuljac, Sanja Pavić Jelečki, Katarina Josipović, Martina Mikšaj, Suzana Palatinuš, Anastazija Ramljak, Anita Krnjak, Ivana Kralj, Saša Balija, Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc, Suzana Palatinuš, Barbara Samvik, Kristijan Štefanes, Nikola Čopor, Ivica Bračko, Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
   </si>
 </sst>
 </file>
@@ -930,7 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>

--- a/data/3.xlsx
+++ b/data/3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C7CB3E-6DF4-4373-A9CC-D000EF8D3936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB11AB80-5D4C-40BB-89B6-4508BB3CBFFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,26 +435,6 @@
   </si>
   <si>
     <t>Lunch</t>
-  </si>
-  <si>
-    <t>P—1  Anaphylactic shock,
-Zvonimir Banoža, Matija Radobuljac
-P—2  Aortic dissection
-Sanja Pavić Jelečki
-P—3  Education of employees of the Institute of Emergency Medicine of Krapina - Zagorje County
-Suzana Palatinuš
-P—4  Inhalation Analgesia in Emergency Medicine: Application of Penthrox
-Anastazija Ramljak, Anita Krnjak
-P—5  Innovative Approaches in Emergency Education
-Ivana Kralj, Saša Balija
-P—6   Multidisciplinary Approach in Managing a Pregnant Woman with Placental Abruption – From EMS to Delivery Room and Operating Theatre
-Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc
-P—7 Resuscitation in out-of-hospital conditions
-Suzana Palatinuš
-P—8 Stavovi građana o oživljavanju osoba van bolnice i DNR (Do Not Resuscitate) - “Ne oživljavaj” obrascu
-Barbara Samvik, Kristijan Štefanes, Nikola Čopor, Ivica Bračko
-P—9 The importance of recognizing the symptoms and signs of cardiogenic shock in patients in the ED with reference to the case of a patient with postinfarction septal rupture
-Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
   </si>
   <si>
     <t>P—1    Anafilaktički šok,
@@ -479,6 +459,26 @@
   </si>
   <si>
     <t>Zvonimir Banoža, Matija Radobuljac, Sanja Pavić Jelečki, Katarina Josipović, Martina Mikšaj, Suzana Palatinuš, Anastazija Ramljak, Anita Krnjak, Ivana Kralj, Saša Balija, Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc, Suzana Palatinuš, Barbara Samvik, Kristijan Štefanes, Nikola Čopor, Ivica Bračko, Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
+  </si>
+  <si>
+    <t>P—1  Anaphylactic shock,
+Zvonimir Banoža, Matija Radobuljac
+P—2  Aortic dissection
+Sanja Pavić Jelečki, Katarina Josipović, Martina Mikšaj
+P—3  Education of employees of the Institute of Emergency Medicine of Krapina - Zagorje County
+Suzana Palatinuš
+P—4  Inhalation Analgesia in Emergency Medicine: Application of Penthrox
+Anastazija Ramljak, Anita Krnjak
+P—5  Innovative Approaches in Emergency Education
+Ivana Kralj, Saša Balija
+P—6   Multidisciplinary Approach in Managing a Pregnant Woman with Placental Abruption – From EMS to Delivery Room and Operating Theatre
+Silvia Tisaj Pigac, Ivana Sklepić Klobučarić, Tina Kresonja, Milena Škvorc
+P—7 Resuscitation in out-of-hospital conditions
+Suzana Palatinuš
+P—8 Stavovi građana o oživljavanju osoba van bolnice i DNR (Do Not Resuscitate) - “Ne oživljavaj” obrascu
+Barbara Samvik, Kristijan Štefanes, Nikola Čopor, Ivica Bračko
+P—9 The importance of recognizing the symptoms and signs of cardiogenic shock in patients in the ED with reference to the case of a patient with postinfarction septal rupture
+Ramon Tumbas, Emil Kralj, Dragica Svetličić</t>
   </si>
 </sst>
 </file>
@@ -930,9 +930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="63.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1471,16 +1469,16 @@
         <v>102</v>
       </c>
       <c r="E24" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L24" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
